--- a/RPS FCPR- Project Planning checklist.xlsx
+++ b/RPS FCPR- Project Planning checklist.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
   <si>
     <t>Project Scope</t>
   </si>
@@ -384,6 +384,9 @@
   </si>
   <si>
     <t>GItHub</t>
+  </si>
+  <si>
+    <t>CSS to be conducted half yearly</t>
   </si>
 </sst>
 </file>
@@ -940,27 +943,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -993,15 +1005,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1775,18 +1778,18 @@
       <c r="F4" s="46"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="55"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="57"/>
-      <c r="F5" s="58"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="55"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
@@ -1803,18 +1806,18 @@
       <c r="T5" s="10"/>
     </row>
     <row r="6" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="55"/>
+      <c r="B6" s="52"/>
       <c r="C6" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="71">
+      <c r="D6" s="56">
         <v>1</v>
       </c>
-      <c r="E6" s="72"/>
-      <c r="F6" s="73"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="58"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
@@ -1831,18 +1834,18 @@
       <c r="T6" s="10"/>
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="55"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="58"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="55"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
@@ -1859,18 +1862,18 @@
       <c r="T7" s="10"/>
     </row>
     <row r="8" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="55"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="57"/>
-      <c r="F8" s="58"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="55"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -1887,18 +1890,18 @@
       <c r="T8" s="10"/>
     </row>
     <row r="9" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="55"/>
+      <c r="B9" s="52"/>
       <c r="C9" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="59">
+      <c r="D9" s="62">
         <v>41663</v>
       </c>
-      <c r="E9" s="60"/>
-      <c r="F9" s="61"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="64"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
@@ -1937,13 +1940,13 @@
       <c r="T10" s="10"/>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="63"/>
+      <c r="B11" s="66"/>
       <c r="C11" s="17"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
       <c r="F11" s="18"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -1961,11 +1964,11 @@
       <c r="T11" s="10"/>
     </row>
     <row r="12" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A12" s="64"/>
-      <c r="B12" s="65"/>
+      <c r="A12" s="67"/>
+      <c r="B12" s="68"/>
       <c r="C12" s="19"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
       <c r="F12" s="20"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -1986,10 +1989,10 @@
       <c r="A13" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="68"/>
+      <c r="C13" s="71"/>
       <c r="D13" s="22" t="s">
         <v>44</v>
       </c>
@@ -2018,10 +2021,10 @@
       <c r="A14" s="27">
         <v>1</v>
       </c>
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="70"/>
+      <c r="C14" s="73"/>
       <c r="D14" s="28" t="s">
         <v>47</v>
       </c>
@@ -2048,8 +2051,8 @@
     </row>
     <row r="15" spans="1:20" ht="15.75" thickBot="1">
       <c r="A15" s="31"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
       <c r="D15" s="32"/>
       <c r="E15" s="33"/>
       <c r="F15" s="34"/>
@@ -2070,8 +2073,8 @@
     </row>
     <row r="16" spans="1:20" s="10" customFormat="1">
       <c r="A16" s="36"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
       <c r="D16" s="37"/>
       <c r="E16" s="38"/>
       <c r="F16" s="35"/>
@@ -2245,1679 +2248,1673 @@
       <c r="V22" s="10"/>
     </row>
     <row r="23" spans="1:47">
-      <c r="A23" s="53"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="53"/>
-      <c r="Q23" s="53"/>
-      <c r="R23" s="53"/>
-      <c r="S23" s="53"/>
-      <c r="T23" s="53"/>
-      <c r="U23" s="53"/>
-      <c r="V23" s="53"/>
-      <c r="W23" s="53"/>
-      <c r="X23" s="53"/>
-      <c r="Y23" s="53"/>
-      <c r="Z23" s="53"/>
-      <c r="AA23" s="53"/>
-      <c r="AB23" s="53"/>
-      <c r="AC23" s="53"/>
-      <c r="AD23" s="53"/>
-      <c r="AE23" s="53"/>
-      <c r="AF23" s="53"/>
-      <c r="AG23" s="53"/>
-      <c r="AH23" s="53"/>
-      <c r="AI23" s="53"/>
-      <c r="AJ23" s="53"/>
-      <c r="AK23" s="53"/>
-      <c r="AL23" s="53"/>
-      <c r="AM23" s="53"/>
-      <c r="AN23" s="53"/>
-      <c r="AO23" s="53"/>
-      <c r="AP23" s="53"/>
-      <c r="AQ23" s="53"/>
-      <c r="AR23" s="53"/>
-      <c r="AS23" s="53"/>
-      <c r="AT23" s="53"/>
-      <c r="AU23" s="53"/>
+      <c r="A23" s="61"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="61"/>
+      <c r="Q23" s="61"/>
+      <c r="R23" s="61"/>
+      <c r="S23" s="61"/>
+      <c r="T23" s="61"/>
+      <c r="U23" s="61"/>
+      <c r="V23" s="61"/>
+      <c r="W23" s="61"/>
+      <c r="X23" s="61"/>
+      <c r="Y23" s="61"/>
+      <c r="Z23" s="61"/>
+      <c r="AA23" s="61"/>
+      <c r="AB23" s="61"/>
+      <c r="AC23" s="61"/>
+      <c r="AD23" s="61"/>
+      <c r="AE23" s="61"/>
+      <c r="AF23" s="61"/>
+      <c r="AG23" s="61"/>
+      <c r="AH23" s="61"/>
+      <c r="AI23" s="61"/>
+      <c r="AJ23" s="61"/>
+      <c r="AK23" s="61"/>
+      <c r="AL23" s="61"/>
+      <c r="AM23" s="61"/>
+      <c r="AN23" s="61"/>
+      <c r="AO23" s="61"/>
+      <c r="AP23" s="61"/>
+      <c r="AQ23" s="61"/>
+      <c r="AR23" s="61"/>
+      <c r="AS23" s="61"/>
+      <c r="AT23" s="61"/>
+      <c r="AU23" s="61"/>
     </row>
     <row r="24" spans="1:47">
-      <c r="A24" s="53"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="53"/>
-      <c r="R24" s="53"/>
-      <c r="S24" s="53"/>
-      <c r="T24" s="53"/>
-      <c r="U24" s="53"/>
-      <c r="V24" s="53"/>
-      <c r="W24" s="53"/>
-      <c r="X24" s="53"/>
-      <c r="Y24" s="53"/>
-      <c r="Z24" s="53"/>
-      <c r="AA24" s="53"/>
-      <c r="AB24" s="53"/>
-      <c r="AC24" s="53"/>
-      <c r="AD24" s="53"/>
-      <c r="AE24" s="53"/>
-      <c r="AF24" s="53"/>
-      <c r="AG24" s="53"/>
-      <c r="AH24" s="53"/>
-      <c r="AI24" s="53"/>
-      <c r="AJ24" s="53"/>
-      <c r="AK24" s="53"/>
-      <c r="AL24" s="53"/>
-      <c r="AM24" s="53"/>
-      <c r="AN24" s="53"/>
-      <c r="AO24" s="53"/>
-      <c r="AP24" s="53"/>
-      <c r="AQ24" s="53"/>
-      <c r="AR24" s="53"/>
-      <c r="AS24" s="53"/>
-      <c r="AT24" s="53"/>
-      <c r="AU24" s="53"/>
+      <c r="A24" s="61"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="61"/>
+      <c r="O24" s="61"/>
+      <c r="P24" s="61"/>
+      <c r="Q24" s="61"/>
+      <c r="R24" s="61"/>
+      <c r="S24" s="61"/>
+      <c r="T24" s="61"/>
+      <c r="U24" s="61"/>
+      <c r="V24" s="61"/>
+      <c r="W24" s="61"/>
+      <c r="X24" s="61"/>
+      <c r="Y24" s="61"/>
+      <c r="Z24" s="61"/>
+      <c r="AA24" s="61"/>
+      <c r="AB24" s="61"/>
+      <c r="AC24" s="61"/>
+      <c r="AD24" s="61"/>
+      <c r="AE24" s="61"/>
+      <c r="AF24" s="61"/>
+      <c r="AG24" s="61"/>
+      <c r="AH24" s="61"/>
+      <c r="AI24" s="61"/>
+      <c r="AJ24" s="61"/>
+      <c r="AK24" s="61"/>
+      <c r="AL24" s="61"/>
+      <c r="AM24" s="61"/>
+      <c r="AN24" s="61"/>
+      <c r="AO24" s="61"/>
+      <c r="AP24" s="61"/>
+      <c r="AQ24" s="61"/>
+      <c r="AR24" s="61"/>
+      <c r="AS24" s="61"/>
+      <c r="AT24" s="61"/>
+      <c r="AU24" s="61"/>
     </row>
     <row r="25" spans="1:47">
-      <c r="A25" s="53"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="53"/>
-      <c r="Q25" s="53"/>
-      <c r="R25" s="53"/>
-      <c r="S25" s="53"/>
-      <c r="T25" s="53"/>
-      <c r="U25" s="53"/>
-      <c r="V25" s="53"/>
-      <c r="W25" s="53"/>
-      <c r="X25" s="53"/>
-      <c r="Y25" s="53"/>
-      <c r="Z25" s="53"/>
-      <c r="AA25" s="53"/>
-      <c r="AB25" s="53"/>
-      <c r="AC25" s="53"/>
-      <c r="AD25" s="53"/>
-      <c r="AE25" s="53"/>
-      <c r="AF25" s="53"/>
-      <c r="AG25" s="53"/>
-      <c r="AH25" s="53"/>
-      <c r="AI25" s="53"/>
-      <c r="AJ25" s="53"/>
-      <c r="AK25" s="53"/>
-      <c r="AL25" s="53"/>
-      <c r="AM25" s="53"/>
-      <c r="AN25" s="53"/>
-      <c r="AO25" s="53"/>
-      <c r="AP25" s="53"/>
-      <c r="AQ25" s="53"/>
-      <c r="AR25" s="53"/>
-      <c r="AS25" s="53"/>
-      <c r="AT25" s="53"/>
-      <c r="AU25" s="53"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="61"/>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="61"/>
+      <c r="R25" s="61"/>
+      <c r="S25" s="61"/>
+      <c r="T25" s="61"/>
+      <c r="U25" s="61"/>
+      <c r="V25" s="61"/>
+      <c r="W25" s="61"/>
+      <c r="X25" s="61"/>
+      <c r="Y25" s="61"/>
+      <c r="Z25" s="61"/>
+      <c r="AA25" s="61"/>
+      <c r="AB25" s="61"/>
+      <c r="AC25" s="61"/>
+      <c r="AD25" s="61"/>
+      <c r="AE25" s="61"/>
+      <c r="AF25" s="61"/>
+      <c r="AG25" s="61"/>
+      <c r="AH25" s="61"/>
+      <c r="AI25" s="61"/>
+      <c r="AJ25" s="61"/>
+      <c r="AK25" s="61"/>
+      <c r="AL25" s="61"/>
+      <c r="AM25" s="61"/>
+      <c r="AN25" s="61"/>
+      <c r="AO25" s="61"/>
+      <c r="AP25" s="61"/>
+      <c r="AQ25" s="61"/>
+      <c r="AR25" s="61"/>
+      <c r="AS25" s="61"/>
+      <c r="AT25" s="61"/>
+      <c r="AU25" s="61"/>
     </row>
     <row r="26" spans="1:47">
-      <c r="A26" s="53"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="53"/>
-      <c r="Q26" s="53"/>
-      <c r="R26" s="53"/>
-      <c r="S26" s="53"/>
-      <c r="T26" s="53"/>
-      <c r="U26" s="53"/>
-      <c r="V26" s="53"/>
-      <c r="W26" s="53"/>
-      <c r="X26" s="53"/>
-      <c r="Y26" s="53"/>
-      <c r="Z26" s="53"/>
-      <c r="AA26" s="53"/>
-      <c r="AB26" s="53"/>
-      <c r="AC26" s="53"/>
-      <c r="AD26" s="53"/>
-      <c r="AE26" s="53"/>
-      <c r="AF26" s="53"/>
-      <c r="AG26" s="53"/>
-      <c r="AH26" s="53"/>
-      <c r="AI26" s="53"/>
-      <c r="AJ26" s="53"/>
-      <c r="AK26" s="53"/>
-      <c r="AL26" s="53"/>
-      <c r="AM26" s="53"/>
-      <c r="AN26" s="53"/>
-      <c r="AO26" s="53"/>
-      <c r="AP26" s="53"/>
-      <c r="AQ26" s="53"/>
-      <c r="AR26" s="53"/>
-      <c r="AS26" s="53"/>
-      <c r="AT26" s="53"/>
-      <c r="AU26" s="53"/>
+      <c r="A26" s="61"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="61"/>
+      <c r="N26" s="61"/>
+      <c r="O26" s="61"/>
+      <c r="P26" s="61"/>
+      <c r="Q26" s="61"/>
+      <c r="R26" s="61"/>
+      <c r="S26" s="61"/>
+      <c r="T26" s="61"/>
+      <c r="U26" s="61"/>
+      <c r="V26" s="61"/>
+      <c r="W26" s="61"/>
+      <c r="X26" s="61"/>
+      <c r="Y26" s="61"/>
+      <c r="Z26" s="61"/>
+      <c r="AA26" s="61"/>
+      <c r="AB26" s="61"/>
+      <c r="AC26" s="61"/>
+      <c r="AD26" s="61"/>
+      <c r="AE26" s="61"/>
+      <c r="AF26" s="61"/>
+      <c r="AG26" s="61"/>
+      <c r="AH26" s="61"/>
+      <c r="AI26" s="61"/>
+      <c r="AJ26" s="61"/>
+      <c r="AK26" s="61"/>
+      <c r="AL26" s="61"/>
+      <c r="AM26" s="61"/>
+      <c r="AN26" s="61"/>
+      <c r="AO26" s="61"/>
+      <c r="AP26" s="61"/>
+      <c r="AQ26" s="61"/>
+      <c r="AR26" s="61"/>
+      <c r="AS26" s="61"/>
+      <c r="AT26" s="61"/>
+      <c r="AU26" s="61"/>
     </row>
     <row r="27" spans="1:47">
-      <c r="A27" s="53"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="53"/>
-      <c r="T27" s="53"/>
-      <c r="U27" s="53"/>
-      <c r="V27" s="53"/>
-      <c r="W27" s="53"/>
-      <c r="X27" s="53"/>
-      <c r="Y27" s="53"/>
-      <c r="Z27" s="53"/>
-      <c r="AA27" s="53"/>
-      <c r="AB27" s="53"/>
-      <c r="AC27" s="53"/>
-      <c r="AD27" s="53"/>
-      <c r="AE27" s="53"/>
-      <c r="AF27" s="53"/>
-      <c r="AG27" s="53"/>
-      <c r="AH27" s="53"/>
-      <c r="AI27" s="53"/>
-      <c r="AJ27" s="53"/>
-      <c r="AK27" s="53"/>
-      <c r="AL27" s="53"/>
-      <c r="AM27" s="53"/>
-      <c r="AN27" s="53"/>
-      <c r="AO27" s="53"/>
-      <c r="AP27" s="53"/>
-      <c r="AQ27" s="53"/>
-      <c r="AR27" s="53"/>
-      <c r="AS27" s="53"/>
-      <c r="AT27" s="53"/>
-      <c r="AU27" s="53"/>
+      <c r="A27" s="61"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="61"/>
+      <c r="N27" s="61"/>
+      <c r="O27" s="61"/>
+      <c r="P27" s="61"/>
+      <c r="Q27" s="61"/>
+      <c r="R27" s="61"/>
+      <c r="S27" s="61"/>
+      <c r="T27" s="61"/>
+      <c r="U27" s="61"/>
+      <c r="V27" s="61"/>
+      <c r="W27" s="61"/>
+      <c r="X27" s="61"/>
+      <c r="Y27" s="61"/>
+      <c r="Z27" s="61"/>
+      <c r="AA27" s="61"/>
+      <c r="AB27" s="61"/>
+      <c r="AC27" s="61"/>
+      <c r="AD27" s="61"/>
+      <c r="AE27" s="61"/>
+      <c r="AF27" s="61"/>
+      <c r="AG27" s="61"/>
+      <c r="AH27" s="61"/>
+      <c r="AI27" s="61"/>
+      <c r="AJ27" s="61"/>
+      <c r="AK27" s="61"/>
+      <c r="AL27" s="61"/>
+      <c r="AM27" s="61"/>
+      <c r="AN27" s="61"/>
+      <c r="AO27" s="61"/>
+      <c r="AP27" s="61"/>
+      <c r="AQ27" s="61"/>
+      <c r="AR27" s="61"/>
+      <c r="AS27" s="61"/>
+      <c r="AT27" s="61"/>
+      <c r="AU27" s="61"/>
     </row>
     <row r="28" spans="1:47">
-      <c r="A28" s="53"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="53"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="53"/>
-      <c r="Q28" s="53"/>
-      <c r="R28" s="53"/>
-      <c r="S28" s="53"/>
-      <c r="T28" s="53"/>
-      <c r="U28" s="53"/>
-      <c r="V28" s="53"/>
-      <c r="W28" s="53"/>
-      <c r="X28" s="53"/>
-      <c r="Y28" s="53"/>
-      <c r="Z28" s="53"/>
-      <c r="AA28" s="53"/>
-      <c r="AB28" s="53"/>
-      <c r="AC28" s="53"/>
-      <c r="AD28" s="53"/>
-      <c r="AE28" s="53"/>
-      <c r="AF28" s="53"/>
-      <c r="AG28" s="53"/>
-      <c r="AH28" s="53"/>
-      <c r="AI28" s="53"/>
-      <c r="AJ28" s="53"/>
-      <c r="AK28" s="53"/>
-      <c r="AL28" s="53"/>
-      <c r="AM28" s="53"/>
-      <c r="AN28" s="53"/>
-      <c r="AO28" s="53"/>
-      <c r="AP28" s="53"/>
-      <c r="AQ28" s="53"/>
-      <c r="AR28" s="53"/>
-      <c r="AS28" s="53"/>
-      <c r="AT28" s="53"/>
-      <c r="AU28" s="53"/>
+      <c r="A28" s="61"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="61"/>
+      <c r="N28" s="61"/>
+      <c r="O28" s="61"/>
+      <c r="P28" s="61"/>
+      <c r="Q28" s="61"/>
+      <c r="R28" s="61"/>
+      <c r="S28" s="61"/>
+      <c r="T28" s="61"/>
+      <c r="U28" s="61"/>
+      <c r="V28" s="61"/>
+      <c r="W28" s="61"/>
+      <c r="X28" s="61"/>
+      <c r="Y28" s="61"/>
+      <c r="Z28" s="61"/>
+      <c r="AA28" s="61"/>
+      <c r="AB28" s="61"/>
+      <c r="AC28" s="61"/>
+      <c r="AD28" s="61"/>
+      <c r="AE28" s="61"/>
+      <c r="AF28" s="61"/>
+      <c r="AG28" s="61"/>
+      <c r="AH28" s="61"/>
+      <c r="AI28" s="61"/>
+      <c r="AJ28" s="61"/>
+      <c r="AK28" s="61"/>
+      <c r="AL28" s="61"/>
+      <c r="AM28" s="61"/>
+      <c r="AN28" s="61"/>
+      <c r="AO28" s="61"/>
+      <c r="AP28" s="61"/>
+      <c r="AQ28" s="61"/>
+      <c r="AR28" s="61"/>
+      <c r="AS28" s="61"/>
+      <c r="AT28" s="61"/>
+      <c r="AU28" s="61"/>
     </row>
     <row r="29" spans="1:47">
-      <c r="A29" s="53"/>
-      <c r="B29" s="53"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="53"/>
-      <c r="Q29" s="53"/>
-      <c r="R29" s="53"/>
-      <c r="S29" s="53"/>
-      <c r="T29" s="53"/>
-      <c r="U29" s="53"/>
-      <c r="V29" s="53"/>
-      <c r="W29" s="53"/>
-      <c r="X29" s="53"/>
-      <c r="Y29" s="53"/>
-      <c r="Z29" s="53"/>
-      <c r="AA29" s="53"/>
-      <c r="AB29" s="53"/>
-      <c r="AC29" s="53"/>
-      <c r="AD29" s="53"/>
-      <c r="AE29" s="53"/>
-      <c r="AF29" s="53"/>
-      <c r="AG29" s="53"/>
-      <c r="AH29" s="53"/>
-      <c r="AI29" s="53"/>
-      <c r="AJ29" s="53"/>
-      <c r="AK29" s="53"/>
-      <c r="AL29" s="53"/>
-      <c r="AM29" s="53"/>
-      <c r="AN29" s="53"/>
-      <c r="AO29" s="53"/>
-      <c r="AP29" s="53"/>
-      <c r="AQ29" s="53"/>
-      <c r="AR29" s="53"/>
-      <c r="AS29" s="53"/>
-      <c r="AT29" s="53"/>
-      <c r="AU29" s="53"/>
+      <c r="A29" s="61"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="61"/>
+      <c r="S29" s="61"/>
+      <c r="T29" s="61"/>
+      <c r="U29" s="61"/>
+      <c r="V29" s="61"/>
+      <c r="W29" s="61"/>
+      <c r="X29" s="61"/>
+      <c r="Y29" s="61"/>
+      <c r="Z29" s="61"/>
+      <c r="AA29" s="61"/>
+      <c r="AB29" s="61"/>
+      <c r="AC29" s="61"/>
+      <c r="AD29" s="61"/>
+      <c r="AE29" s="61"/>
+      <c r="AF29" s="61"/>
+      <c r="AG29" s="61"/>
+      <c r="AH29" s="61"/>
+      <c r="AI29" s="61"/>
+      <c r="AJ29" s="61"/>
+      <c r="AK29" s="61"/>
+      <c r="AL29" s="61"/>
+      <c r="AM29" s="61"/>
+      <c r="AN29" s="61"/>
+      <c r="AO29" s="61"/>
+      <c r="AP29" s="61"/>
+      <c r="AQ29" s="61"/>
+      <c r="AR29" s="61"/>
+      <c r="AS29" s="61"/>
+      <c r="AT29" s="61"/>
+      <c r="AU29" s="61"/>
     </row>
     <row r="30" spans="1:47">
-      <c r="A30" s="53"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="53"/>
-      <c r="Q30" s="53"/>
-      <c r="R30" s="53"/>
-      <c r="S30" s="53"/>
-      <c r="T30" s="53"/>
-      <c r="U30" s="53"/>
-      <c r="V30" s="53"/>
-      <c r="W30" s="53"/>
-      <c r="X30" s="53"/>
-      <c r="Y30" s="53"/>
-      <c r="Z30" s="53"/>
-      <c r="AA30" s="53"/>
-      <c r="AB30" s="53"/>
-      <c r="AC30" s="53"/>
-      <c r="AD30" s="53"/>
-      <c r="AE30" s="53"/>
-      <c r="AF30" s="53"/>
-      <c r="AG30" s="53"/>
-      <c r="AH30" s="53"/>
-      <c r="AI30" s="53"/>
-      <c r="AJ30" s="53"/>
-      <c r="AK30" s="53"/>
-      <c r="AL30" s="53"/>
-      <c r="AM30" s="53"/>
-      <c r="AN30" s="53"/>
-      <c r="AO30" s="53"/>
-      <c r="AP30" s="53"/>
-      <c r="AQ30" s="53"/>
-      <c r="AR30" s="53"/>
-      <c r="AS30" s="53"/>
-      <c r="AT30" s="53"/>
-      <c r="AU30" s="53"/>
+      <c r="A30" s="61"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="61"/>
+      <c r="N30" s="61"/>
+      <c r="O30" s="61"/>
+      <c r="P30" s="61"/>
+      <c r="Q30" s="61"/>
+      <c r="R30" s="61"/>
+      <c r="S30" s="61"/>
+      <c r="T30" s="61"/>
+      <c r="U30" s="61"/>
+      <c r="V30" s="61"/>
+      <c r="W30" s="61"/>
+      <c r="X30" s="61"/>
+      <c r="Y30" s="61"/>
+      <c r="Z30" s="61"/>
+      <c r="AA30" s="61"/>
+      <c r="AB30" s="61"/>
+      <c r="AC30" s="61"/>
+      <c r="AD30" s="61"/>
+      <c r="AE30" s="61"/>
+      <c r="AF30" s="61"/>
+      <c r="AG30" s="61"/>
+      <c r="AH30" s="61"/>
+      <c r="AI30" s="61"/>
+      <c r="AJ30" s="61"/>
+      <c r="AK30" s="61"/>
+      <c r="AL30" s="61"/>
+      <c r="AM30" s="61"/>
+      <c r="AN30" s="61"/>
+      <c r="AO30" s="61"/>
+      <c r="AP30" s="61"/>
+      <c r="AQ30" s="61"/>
+      <c r="AR30" s="61"/>
+      <c r="AS30" s="61"/>
+      <c r="AT30" s="61"/>
+      <c r="AU30" s="61"/>
     </row>
     <row r="31" spans="1:47">
-      <c r="A31" s="53"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="53"/>
-      <c r="Q31" s="53"/>
-      <c r="R31" s="53"/>
-      <c r="S31" s="53"/>
-      <c r="T31" s="53"/>
-      <c r="U31" s="53"/>
-      <c r="V31" s="53"/>
-      <c r="W31" s="53"/>
-      <c r="X31" s="53"/>
-      <c r="Y31" s="53"/>
-      <c r="Z31" s="53"/>
-      <c r="AA31" s="53"/>
-      <c r="AB31" s="53"/>
-      <c r="AC31" s="53"/>
-      <c r="AD31" s="53"/>
-      <c r="AE31" s="53"/>
-      <c r="AF31" s="53"/>
-      <c r="AG31" s="53"/>
-      <c r="AH31" s="53"/>
-      <c r="AI31" s="53"/>
-      <c r="AJ31" s="53"/>
-      <c r="AK31" s="53"/>
-      <c r="AL31" s="53"/>
-      <c r="AM31" s="53"/>
-      <c r="AN31" s="53"/>
-      <c r="AO31" s="53"/>
-      <c r="AP31" s="53"/>
-      <c r="AQ31" s="53"/>
-      <c r="AR31" s="53"/>
-      <c r="AS31" s="53"/>
-      <c r="AT31" s="53"/>
-      <c r="AU31" s="53"/>
+      <c r="A31" s="61"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="61"/>
+      <c r="N31" s="61"/>
+      <c r="O31" s="61"/>
+      <c r="P31" s="61"/>
+      <c r="Q31" s="61"/>
+      <c r="R31" s="61"/>
+      <c r="S31" s="61"/>
+      <c r="T31" s="61"/>
+      <c r="U31" s="61"/>
+      <c r="V31" s="61"/>
+      <c r="W31" s="61"/>
+      <c r="X31" s="61"/>
+      <c r="Y31" s="61"/>
+      <c r="Z31" s="61"/>
+      <c r="AA31" s="61"/>
+      <c r="AB31" s="61"/>
+      <c r="AC31" s="61"/>
+      <c r="AD31" s="61"/>
+      <c r="AE31" s="61"/>
+      <c r="AF31" s="61"/>
+      <c r="AG31" s="61"/>
+      <c r="AH31" s="61"/>
+      <c r="AI31" s="61"/>
+      <c r="AJ31" s="61"/>
+      <c r="AK31" s="61"/>
+      <c r="AL31" s="61"/>
+      <c r="AM31" s="61"/>
+      <c r="AN31" s="61"/>
+      <c r="AO31" s="61"/>
+      <c r="AP31" s="61"/>
+      <c r="AQ31" s="61"/>
+      <c r="AR31" s="61"/>
+      <c r="AS31" s="61"/>
+      <c r="AT31" s="61"/>
+      <c r="AU31" s="61"/>
     </row>
     <row r="32" spans="1:47">
-      <c r="A32" s="53"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
-      <c r="O32" s="53"/>
-      <c r="P32" s="53"/>
-      <c r="Q32" s="53"/>
-      <c r="R32" s="53"/>
-      <c r="S32" s="53"/>
-      <c r="T32" s="53"/>
-      <c r="U32" s="53"/>
-      <c r="V32" s="53"/>
-      <c r="W32" s="53"/>
-      <c r="X32" s="53"/>
-      <c r="Y32" s="53"/>
-      <c r="Z32" s="53"/>
-      <c r="AA32" s="53"/>
-      <c r="AB32" s="53"/>
-      <c r="AC32" s="53"/>
-      <c r="AD32" s="53"/>
-      <c r="AE32" s="53"/>
-      <c r="AF32" s="53"/>
-      <c r="AG32" s="53"/>
-      <c r="AH32" s="53"/>
-      <c r="AI32" s="53"/>
-      <c r="AJ32" s="53"/>
-      <c r="AK32" s="53"/>
-      <c r="AL32" s="53"/>
-      <c r="AM32" s="53"/>
-      <c r="AN32" s="53"/>
-      <c r="AO32" s="53"/>
-      <c r="AP32" s="53"/>
-      <c r="AQ32" s="53"/>
-      <c r="AR32" s="53"/>
-      <c r="AS32" s="53"/>
-      <c r="AT32" s="53"/>
-      <c r="AU32" s="53"/>
+      <c r="A32" s="61"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="61"/>
+      <c r="N32" s="61"/>
+      <c r="O32" s="61"/>
+      <c r="P32" s="61"/>
+      <c r="Q32" s="61"/>
+      <c r="R32" s="61"/>
+      <c r="S32" s="61"/>
+      <c r="T32" s="61"/>
+      <c r="U32" s="61"/>
+      <c r="V32" s="61"/>
+      <c r="W32" s="61"/>
+      <c r="X32" s="61"/>
+      <c r="Y32" s="61"/>
+      <c r="Z32" s="61"/>
+      <c r="AA32" s="61"/>
+      <c r="AB32" s="61"/>
+      <c r="AC32" s="61"/>
+      <c r="AD32" s="61"/>
+      <c r="AE32" s="61"/>
+      <c r="AF32" s="61"/>
+      <c r="AG32" s="61"/>
+      <c r="AH32" s="61"/>
+      <c r="AI32" s="61"/>
+      <c r="AJ32" s="61"/>
+      <c r="AK32" s="61"/>
+      <c r="AL32" s="61"/>
+      <c r="AM32" s="61"/>
+      <c r="AN32" s="61"/>
+      <c r="AO32" s="61"/>
+      <c r="AP32" s="61"/>
+      <c r="AQ32" s="61"/>
+      <c r="AR32" s="61"/>
+      <c r="AS32" s="61"/>
+      <c r="AT32" s="61"/>
+      <c r="AU32" s="61"/>
     </row>
     <row r="33" spans="1:47">
-      <c r="A33" s="53"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="53"/>
-      <c r="Q33" s="53"/>
-      <c r="R33" s="53"/>
-      <c r="S33" s="53"/>
-      <c r="T33" s="53"/>
-      <c r="U33" s="53"/>
-      <c r="V33" s="53"/>
-      <c r="W33" s="53"/>
-      <c r="X33" s="53"/>
-      <c r="Y33" s="53"/>
-      <c r="Z33" s="53"/>
-      <c r="AA33" s="53"/>
-      <c r="AB33" s="53"/>
-      <c r="AC33" s="53"/>
-      <c r="AD33" s="53"/>
-      <c r="AE33" s="53"/>
-      <c r="AF33" s="53"/>
-      <c r="AG33" s="53"/>
-      <c r="AH33" s="53"/>
-      <c r="AI33" s="53"/>
-      <c r="AJ33" s="53"/>
-      <c r="AK33" s="53"/>
-      <c r="AL33" s="53"/>
-      <c r="AM33" s="53"/>
-      <c r="AN33" s="53"/>
-      <c r="AO33" s="53"/>
-      <c r="AP33" s="53"/>
-      <c r="AQ33" s="53"/>
-      <c r="AR33" s="53"/>
-      <c r="AS33" s="53"/>
-      <c r="AT33" s="53"/>
-      <c r="AU33" s="53"/>
+      <c r="A33" s="61"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="61"/>
+      <c r="N33" s="61"/>
+      <c r="O33" s="61"/>
+      <c r="P33" s="61"/>
+      <c r="Q33" s="61"/>
+      <c r="R33" s="61"/>
+      <c r="S33" s="61"/>
+      <c r="T33" s="61"/>
+      <c r="U33" s="61"/>
+      <c r="V33" s="61"/>
+      <c r="W33" s="61"/>
+      <c r="X33" s="61"/>
+      <c r="Y33" s="61"/>
+      <c r="Z33" s="61"/>
+      <c r="AA33" s="61"/>
+      <c r="AB33" s="61"/>
+      <c r="AC33" s="61"/>
+      <c r="AD33" s="61"/>
+      <c r="AE33" s="61"/>
+      <c r="AF33" s="61"/>
+      <c r="AG33" s="61"/>
+      <c r="AH33" s="61"/>
+      <c r="AI33" s="61"/>
+      <c r="AJ33" s="61"/>
+      <c r="AK33" s="61"/>
+      <c r="AL33" s="61"/>
+      <c r="AM33" s="61"/>
+      <c r="AN33" s="61"/>
+      <c r="AO33" s="61"/>
+      <c r="AP33" s="61"/>
+      <c r="AQ33" s="61"/>
+      <c r="AR33" s="61"/>
+      <c r="AS33" s="61"/>
+      <c r="AT33" s="61"/>
+      <c r="AU33" s="61"/>
     </row>
     <row r="34" spans="1:47">
-      <c r="A34" s="53"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="53"/>
-      <c r="O34" s="53"/>
-      <c r="P34" s="53"/>
-      <c r="Q34" s="53"/>
-      <c r="R34" s="53"/>
-      <c r="S34" s="53"/>
-      <c r="T34" s="53"/>
-      <c r="U34" s="53"/>
-      <c r="V34" s="53"/>
-      <c r="W34" s="53"/>
-      <c r="X34" s="53"/>
-      <c r="Y34" s="53"/>
-      <c r="Z34" s="53"/>
-      <c r="AA34" s="53"/>
-      <c r="AB34" s="53"/>
-      <c r="AC34" s="53"/>
-      <c r="AD34" s="53"/>
-      <c r="AE34" s="53"/>
-      <c r="AF34" s="53"/>
-      <c r="AG34" s="53"/>
-      <c r="AH34" s="53"/>
-      <c r="AI34" s="53"/>
-      <c r="AJ34" s="53"/>
-      <c r="AK34" s="53"/>
-      <c r="AL34" s="53"/>
-      <c r="AM34" s="53"/>
-      <c r="AN34" s="53"/>
-      <c r="AO34" s="53"/>
-      <c r="AP34" s="53"/>
-      <c r="AQ34" s="53"/>
-      <c r="AR34" s="53"/>
-      <c r="AS34" s="53"/>
-      <c r="AT34" s="53"/>
-      <c r="AU34" s="53"/>
+      <c r="A34" s="61"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="61"/>
+      <c r="N34" s="61"/>
+      <c r="O34" s="61"/>
+      <c r="P34" s="61"/>
+      <c r="Q34" s="61"/>
+      <c r="R34" s="61"/>
+      <c r="S34" s="61"/>
+      <c r="T34" s="61"/>
+      <c r="U34" s="61"/>
+      <c r="V34" s="61"/>
+      <c r="W34" s="61"/>
+      <c r="X34" s="61"/>
+      <c r="Y34" s="61"/>
+      <c r="Z34" s="61"/>
+      <c r="AA34" s="61"/>
+      <c r="AB34" s="61"/>
+      <c r="AC34" s="61"/>
+      <c r="AD34" s="61"/>
+      <c r="AE34" s="61"/>
+      <c r="AF34" s="61"/>
+      <c r="AG34" s="61"/>
+      <c r="AH34" s="61"/>
+      <c r="AI34" s="61"/>
+      <c r="AJ34" s="61"/>
+      <c r="AK34" s="61"/>
+      <c r="AL34" s="61"/>
+      <c r="AM34" s="61"/>
+      <c r="AN34" s="61"/>
+      <c r="AO34" s="61"/>
+      <c r="AP34" s="61"/>
+      <c r="AQ34" s="61"/>
+      <c r="AR34" s="61"/>
+      <c r="AS34" s="61"/>
+      <c r="AT34" s="61"/>
+      <c r="AU34" s="61"/>
     </row>
     <row r="35" spans="1:47">
-      <c r="A35" s="53"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="53"/>
-      <c r="N35" s="53"/>
-      <c r="O35" s="53"/>
-      <c r="P35" s="53"/>
-      <c r="Q35" s="53"/>
-      <c r="R35" s="53"/>
-      <c r="S35" s="53"/>
-      <c r="T35" s="53"/>
-      <c r="U35" s="53"/>
-      <c r="V35" s="53"/>
-      <c r="W35" s="53"/>
-      <c r="X35" s="53"/>
-      <c r="Y35" s="53"/>
-      <c r="Z35" s="53"/>
-      <c r="AA35" s="53"/>
-      <c r="AB35" s="53"/>
-      <c r="AC35" s="53"/>
-      <c r="AD35" s="53"/>
-      <c r="AE35" s="53"/>
-      <c r="AF35" s="53"/>
-      <c r="AG35" s="53"/>
-      <c r="AH35" s="53"/>
-      <c r="AI35" s="53"/>
-      <c r="AJ35" s="53"/>
-      <c r="AK35" s="53"/>
-      <c r="AL35" s="53"/>
-      <c r="AM35" s="53"/>
-      <c r="AN35" s="53"/>
-      <c r="AO35" s="53"/>
-      <c r="AP35" s="53"/>
-      <c r="AQ35" s="53"/>
-      <c r="AR35" s="53"/>
-      <c r="AS35" s="53"/>
-      <c r="AT35" s="53"/>
-      <c r="AU35" s="53"/>
+      <c r="A35" s="61"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="61"/>
+      <c r="J35" s="61"/>
+      <c r="K35" s="61"/>
+      <c r="L35" s="61"/>
+      <c r="M35" s="61"/>
+      <c r="N35" s="61"/>
+      <c r="O35" s="61"/>
+      <c r="P35" s="61"/>
+      <c r="Q35" s="61"/>
+      <c r="R35" s="61"/>
+      <c r="S35" s="61"/>
+      <c r="T35" s="61"/>
+      <c r="U35" s="61"/>
+      <c r="V35" s="61"/>
+      <c r="W35" s="61"/>
+      <c r="X35" s="61"/>
+      <c r="Y35" s="61"/>
+      <c r="Z35" s="61"/>
+      <c r="AA35" s="61"/>
+      <c r="AB35" s="61"/>
+      <c r="AC35" s="61"/>
+      <c r="AD35" s="61"/>
+      <c r="AE35" s="61"/>
+      <c r="AF35" s="61"/>
+      <c r="AG35" s="61"/>
+      <c r="AH35" s="61"/>
+      <c r="AI35" s="61"/>
+      <c r="AJ35" s="61"/>
+      <c r="AK35" s="61"/>
+      <c r="AL35" s="61"/>
+      <c r="AM35" s="61"/>
+      <c r="AN35" s="61"/>
+      <c r="AO35" s="61"/>
+      <c r="AP35" s="61"/>
+      <c r="AQ35" s="61"/>
+      <c r="AR35" s="61"/>
+      <c r="AS35" s="61"/>
+      <c r="AT35" s="61"/>
+      <c r="AU35" s="61"/>
     </row>
     <row r="36" spans="1:47">
-      <c r="A36" s="53"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="53"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="53"/>
-      <c r="N36" s="53"/>
-      <c r="O36" s="53"/>
-      <c r="P36" s="53"/>
-      <c r="Q36" s="53"/>
-      <c r="R36" s="53"/>
-      <c r="S36" s="53"/>
-      <c r="T36" s="53"/>
-      <c r="U36" s="53"/>
-      <c r="V36" s="53"/>
-      <c r="W36" s="53"/>
-      <c r="X36" s="53"/>
-      <c r="Y36" s="53"/>
-      <c r="Z36" s="53"/>
-      <c r="AA36" s="53"/>
-      <c r="AB36" s="53"/>
-      <c r="AC36" s="53"/>
-      <c r="AD36" s="53"/>
-      <c r="AE36" s="53"/>
-      <c r="AF36" s="53"/>
-      <c r="AG36" s="53"/>
-      <c r="AH36" s="53"/>
-      <c r="AI36" s="53"/>
-      <c r="AJ36" s="53"/>
-      <c r="AK36" s="53"/>
-      <c r="AL36" s="53"/>
-      <c r="AM36" s="53"/>
-      <c r="AN36" s="53"/>
-      <c r="AO36" s="53"/>
-      <c r="AP36" s="53"/>
-      <c r="AQ36" s="53"/>
-      <c r="AR36" s="53"/>
-      <c r="AS36" s="53"/>
-      <c r="AT36" s="53"/>
-      <c r="AU36" s="53"/>
+      <c r="A36" s="61"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="61"/>
+      <c r="K36" s="61"/>
+      <c r="L36" s="61"/>
+      <c r="M36" s="61"/>
+      <c r="N36" s="61"/>
+      <c r="O36" s="61"/>
+      <c r="P36" s="61"/>
+      <c r="Q36" s="61"/>
+      <c r="R36" s="61"/>
+      <c r="S36" s="61"/>
+      <c r="T36" s="61"/>
+      <c r="U36" s="61"/>
+      <c r="V36" s="61"/>
+      <c r="W36" s="61"/>
+      <c r="X36" s="61"/>
+      <c r="Y36" s="61"/>
+      <c r="Z36" s="61"/>
+      <c r="AA36" s="61"/>
+      <c r="AB36" s="61"/>
+      <c r="AC36" s="61"/>
+      <c r="AD36" s="61"/>
+      <c r="AE36" s="61"/>
+      <c r="AF36" s="61"/>
+      <c r="AG36" s="61"/>
+      <c r="AH36" s="61"/>
+      <c r="AI36" s="61"/>
+      <c r="AJ36" s="61"/>
+      <c r="AK36" s="61"/>
+      <c r="AL36" s="61"/>
+      <c r="AM36" s="61"/>
+      <c r="AN36" s="61"/>
+      <c r="AO36" s="61"/>
+      <c r="AP36" s="61"/>
+      <c r="AQ36" s="61"/>
+      <c r="AR36" s="61"/>
+      <c r="AS36" s="61"/>
+      <c r="AT36" s="61"/>
+      <c r="AU36" s="61"/>
     </row>
     <row r="37" spans="1:47">
-      <c r="A37" s="53"/>
-      <c r="B37" s="53"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="53"/>
-      <c r="N37" s="53"/>
-      <c r="O37" s="53"/>
-      <c r="P37" s="53"/>
-      <c r="Q37" s="53"/>
-      <c r="R37" s="53"/>
-      <c r="S37" s="53"/>
-      <c r="T37" s="53"/>
-      <c r="U37" s="53"/>
-      <c r="V37" s="53"/>
-      <c r="W37" s="53"/>
-      <c r="X37" s="53"/>
-      <c r="Y37" s="53"/>
-      <c r="Z37" s="53"/>
-      <c r="AA37" s="53"/>
-      <c r="AB37" s="53"/>
-      <c r="AC37" s="53"/>
-      <c r="AD37" s="53"/>
-      <c r="AE37" s="53"/>
-      <c r="AF37" s="53"/>
-      <c r="AG37" s="53"/>
-      <c r="AH37" s="53"/>
-      <c r="AI37" s="53"/>
-      <c r="AJ37" s="53"/>
-      <c r="AK37" s="53"/>
-      <c r="AL37" s="53"/>
-      <c r="AM37" s="53"/>
-      <c r="AN37" s="53"/>
-      <c r="AO37" s="53"/>
-      <c r="AP37" s="53"/>
-      <c r="AQ37" s="53"/>
-      <c r="AR37" s="53"/>
-      <c r="AS37" s="53"/>
-      <c r="AT37" s="53"/>
-      <c r="AU37" s="53"/>
+      <c r="A37" s="61"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="61"/>
+      <c r="J37" s="61"/>
+      <c r="K37" s="61"/>
+      <c r="L37" s="61"/>
+      <c r="M37" s="61"/>
+      <c r="N37" s="61"/>
+      <c r="O37" s="61"/>
+      <c r="P37" s="61"/>
+      <c r="Q37" s="61"/>
+      <c r="R37" s="61"/>
+      <c r="S37" s="61"/>
+      <c r="T37" s="61"/>
+      <c r="U37" s="61"/>
+      <c r="V37" s="61"/>
+      <c r="W37" s="61"/>
+      <c r="X37" s="61"/>
+      <c r="Y37" s="61"/>
+      <c r="Z37" s="61"/>
+      <c r="AA37" s="61"/>
+      <c r="AB37" s="61"/>
+      <c r="AC37" s="61"/>
+      <c r="AD37" s="61"/>
+      <c r="AE37" s="61"/>
+      <c r="AF37" s="61"/>
+      <c r="AG37" s="61"/>
+      <c r="AH37" s="61"/>
+      <c r="AI37" s="61"/>
+      <c r="AJ37" s="61"/>
+      <c r="AK37" s="61"/>
+      <c r="AL37" s="61"/>
+      <c r="AM37" s="61"/>
+      <c r="AN37" s="61"/>
+      <c r="AO37" s="61"/>
+      <c r="AP37" s="61"/>
+      <c r="AQ37" s="61"/>
+      <c r="AR37" s="61"/>
+      <c r="AS37" s="61"/>
+      <c r="AT37" s="61"/>
+      <c r="AU37" s="61"/>
     </row>
     <row r="38" spans="1:47">
-      <c r="A38" s="53"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="53"/>
-      <c r="M38" s="53"/>
-      <c r="N38" s="53"/>
-      <c r="O38" s="53"/>
-      <c r="P38" s="53"/>
-      <c r="Q38" s="53"/>
-      <c r="R38" s="53"/>
-      <c r="S38" s="53"/>
-      <c r="T38" s="53"/>
-      <c r="U38" s="53"/>
-      <c r="V38" s="53"/>
-      <c r="W38" s="53"/>
-      <c r="X38" s="53"/>
-      <c r="Y38" s="53"/>
-      <c r="Z38" s="53"/>
-      <c r="AA38" s="53"/>
-      <c r="AB38" s="53"/>
-      <c r="AC38" s="53"/>
-      <c r="AD38" s="53"/>
-      <c r="AE38" s="53"/>
-      <c r="AF38" s="53"/>
-      <c r="AG38" s="53"/>
-      <c r="AH38" s="53"/>
-      <c r="AI38" s="53"/>
-      <c r="AJ38" s="53"/>
-      <c r="AK38" s="53"/>
-      <c r="AL38" s="53"/>
-      <c r="AM38" s="53"/>
-      <c r="AN38" s="53"/>
-      <c r="AO38" s="53"/>
-      <c r="AP38" s="53"/>
-      <c r="AQ38" s="53"/>
-      <c r="AR38" s="53"/>
-      <c r="AS38" s="53"/>
-      <c r="AT38" s="53"/>
-      <c r="AU38" s="53"/>
+      <c r="A38" s="61"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="61"/>
+      <c r="I38" s="61"/>
+      <c r="J38" s="61"/>
+      <c r="K38" s="61"/>
+      <c r="L38" s="61"/>
+      <c r="M38" s="61"/>
+      <c r="N38" s="61"/>
+      <c r="O38" s="61"/>
+      <c r="P38" s="61"/>
+      <c r="Q38" s="61"/>
+      <c r="R38" s="61"/>
+      <c r="S38" s="61"/>
+      <c r="T38" s="61"/>
+      <c r="U38" s="61"/>
+      <c r="V38" s="61"/>
+      <c r="W38" s="61"/>
+      <c r="X38" s="61"/>
+      <c r="Y38" s="61"/>
+      <c r="Z38" s="61"/>
+      <c r="AA38" s="61"/>
+      <c r="AB38" s="61"/>
+      <c r="AC38" s="61"/>
+      <c r="AD38" s="61"/>
+      <c r="AE38" s="61"/>
+      <c r="AF38" s="61"/>
+      <c r="AG38" s="61"/>
+      <c r="AH38" s="61"/>
+      <c r="AI38" s="61"/>
+      <c r="AJ38" s="61"/>
+      <c r="AK38" s="61"/>
+      <c r="AL38" s="61"/>
+      <c r="AM38" s="61"/>
+      <c r="AN38" s="61"/>
+      <c r="AO38" s="61"/>
+      <c r="AP38" s="61"/>
+      <c r="AQ38" s="61"/>
+      <c r="AR38" s="61"/>
+      <c r="AS38" s="61"/>
+      <c r="AT38" s="61"/>
+      <c r="AU38" s="61"/>
     </row>
     <row r="39" spans="1:47">
-      <c r="A39" s="53"/>
-      <c r="B39" s="53"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="53"/>
-      <c r="K39" s="53"/>
-      <c r="L39" s="53"/>
-      <c r="M39" s="53"/>
-      <c r="N39" s="53"/>
-      <c r="O39" s="53"/>
-      <c r="P39" s="53"/>
-      <c r="Q39" s="53"/>
-      <c r="R39" s="53"/>
-      <c r="S39" s="53"/>
-      <c r="T39" s="53"/>
-      <c r="U39" s="53"/>
-      <c r="V39" s="53"/>
-      <c r="W39" s="53"/>
-      <c r="X39" s="53"/>
-      <c r="Y39" s="53"/>
-      <c r="Z39" s="53"/>
-      <c r="AA39" s="53"/>
-      <c r="AB39" s="53"/>
-      <c r="AC39" s="53"/>
-      <c r="AD39" s="53"/>
-      <c r="AE39" s="53"/>
-      <c r="AF39" s="53"/>
-      <c r="AG39" s="53"/>
-      <c r="AH39" s="53"/>
-      <c r="AI39" s="53"/>
-      <c r="AJ39" s="53"/>
-      <c r="AK39" s="53"/>
-      <c r="AL39" s="53"/>
-      <c r="AM39" s="53"/>
-      <c r="AN39" s="53"/>
-      <c r="AO39" s="53"/>
-      <c r="AP39" s="53"/>
-      <c r="AQ39" s="53"/>
-      <c r="AR39" s="53"/>
-      <c r="AS39" s="53"/>
-      <c r="AT39" s="53"/>
-      <c r="AU39" s="53"/>
+      <c r="A39" s="61"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="61"/>
+      <c r="I39" s="61"/>
+      <c r="J39" s="61"/>
+      <c r="K39" s="61"/>
+      <c r="L39" s="61"/>
+      <c r="M39" s="61"/>
+      <c r="N39" s="61"/>
+      <c r="O39" s="61"/>
+      <c r="P39" s="61"/>
+      <c r="Q39" s="61"/>
+      <c r="R39" s="61"/>
+      <c r="S39" s="61"/>
+      <c r="T39" s="61"/>
+      <c r="U39" s="61"/>
+      <c r="V39" s="61"/>
+      <c r="W39" s="61"/>
+      <c r="X39" s="61"/>
+      <c r="Y39" s="61"/>
+      <c r="Z39" s="61"/>
+      <c r="AA39" s="61"/>
+      <c r="AB39" s="61"/>
+      <c r="AC39" s="61"/>
+      <c r="AD39" s="61"/>
+      <c r="AE39" s="61"/>
+      <c r="AF39" s="61"/>
+      <c r="AG39" s="61"/>
+      <c r="AH39" s="61"/>
+      <c r="AI39" s="61"/>
+      <c r="AJ39" s="61"/>
+      <c r="AK39" s="61"/>
+      <c r="AL39" s="61"/>
+      <c r="AM39" s="61"/>
+      <c r="AN39" s="61"/>
+      <c r="AO39" s="61"/>
+      <c r="AP39" s="61"/>
+      <c r="AQ39" s="61"/>
+      <c r="AR39" s="61"/>
+      <c r="AS39" s="61"/>
+      <c r="AT39" s="61"/>
+      <c r="AU39" s="61"/>
     </row>
     <row r="40" spans="1:47">
-      <c r="A40" s="53"/>
-      <c r="B40" s="53"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="53"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="53"/>
-      <c r="O40" s="53"/>
-      <c r="P40" s="53"/>
-      <c r="Q40" s="53"/>
-      <c r="R40" s="53"/>
-      <c r="S40" s="53"/>
-      <c r="T40" s="53"/>
-      <c r="U40" s="53"/>
-      <c r="V40" s="53"/>
-      <c r="W40" s="53"/>
-      <c r="X40" s="53"/>
-      <c r="Y40" s="53"/>
-      <c r="Z40" s="53"/>
-      <c r="AA40" s="53"/>
-      <c r="AB40" s="53"/>
-      <c r="AC40" s="53"/>
-      <c r="AD40" s="53"/>
-      <c r="AE40" s="53"/>
-      <c r="AF40" s="53"/>
-      <c r="AG40" s="53"/>
-      <c r="AH40" s="53"/>
-      <c r="AI40" s="53"/>
-      <c r="AJ40" s="53"/>
-      <c r="AK40" s="53"/>
-      <c r="AL40" s="53"/>
-      <c r="AM40" s="53"/>
-      <c r="AN40" s="53"/>
-      <c r="AO40" s="53"/>
-      <c r="AP40" s="53"/>
-      <c r="AQ40" s="53"/>
-      <c r="AR40" s="53"/>
-      <c r="AS40" s="53"/>
-      <c r="AT40" s="53"/>
-      <c r="AU40" s="53"/>
+      <c r="A40" s="61"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="61"/>
+      <c r="I40" s="61"/>
+      <c r="J40" s="61"/>
+      <c r="K40" s="61"/>
+      <c r="L40" s="61"/>
+      <c r="M40" s="61"/>
+      <c r="N40" s="61"/>
+      <c r="O40" s="61"/>
+      <c r="P40" s="61"/>
+      <c r="Q40" s="61"/>
+      <c r="R40" s="61"/>
+      <c r="S40" s="61"/>
+      <c r="T40" s="61"/>
+      <c r="U40" s="61"/>
+      <c r="V40" s="61"/>
+      <c r="W40" s="61"/>
+      <c r="X40" s="61"/>
+      <c r="Y40" s="61"/>
+      <c r="Z40" s="61"/>
+      <c r="AA40" s="61"/>
+      <c r="AB40" s="61"/>
+      <c r="AC40" s="61"/>
+      <c r="AD40" s="61"/>
+      <c r="AE40" s="61"/>
+      <c r="AF40" s="61"/>
+      <c r="AG40" s="61"/>
+      <c r="AH40" s="61"/>
+      <c r="AI40" s="61"/>
+      <c r="AJ40" s="61"/>
+      <c r="AK40" s="61"/>
+      <c r="AL40" s="61"/>
+      <c r="AM40" s="61"/>
+      <c r="AN40" s="61"/>
+      <c r="AO40" s="61"/>
+      <c r="AP40" s="61"/>
+      <c r="AQ40" s="61"/>
+      <c r="AR40" s="61"/>
+      <c r="AS40" s="61"/>
+      <c r="AT40" s="61"/>
+      <c r="AU40" s="61"/>
     </row>
     <row r="41" spans="1:47">
-      <c r="A41" s="53"/>
-      <c r="B41" s="53"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="53"/>
-      <c r="L41" s="53"/>
-      <c r="M41" s="53"/>
-      <c r="N41" s="53"/>
-      <c r="O41" s="53"/>
-      <c r="P41" s="53"/>
-      <c r="Q41" s="53"/>
-      <c r="R41" s="53"/>
-      <c r="S41" s="53"/>
-      <c r="T41" s="53"/>
-      <c r="U41" s="53"/>
-      <c r="V41" s="53"/>
-      <c r="W41" s="53"/>
-      <c r="X41" s="53"/>
-      <c r="Y41" s="53"/>
-      <c r="Z41" s="53"/>
-      <c r="AA41" s="53"/>
-      <c r="AB41" s="53"/>
-      <c r="AC41" s="53"/>
-      <c r="AD41" s="53"/>
-      <c r="AE41" s="53"/>
-      <c r="AF41" s="53"/>
-      <c r="AG41" s="53"/>
-      <c r="AH41" s="53"/>
-      <c r="AI41" s="53"/>
-      <c r="AJ41" s="53"/>
-      <c r="AK41" s="53"/>
-      <c r="AL41" s="53"/>
-      <c r="AM41" s="53"/>
-      <c r="AN41" s="53"/>
-      <c r="AO41" s="53"/>
-      <c r="AP41" s="53"/>
-      <c r="AQ41" s="53"/>
-      <c r="AR41" s="53"/>
-      <c r="AS41" s="53"/>
-      <c r="AT41" s="53"/>
-      <c r="AU41" s="53"/>
+      <c r="A41" s="61"/>
+      <c r="B41" s="61"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="61"/>
+      <c r="J41" s="61"/>
+      <c r="K41" s="61"/>
+      <c r="L41" s="61"/>
+      <c r="M41" s="61"/>
+      <c r="N41" s="61"/>
+      <c r="O41" s="61"/>
+      <c r="P41" s="61"/>
+      <c r="Q41" s="61"/>
+      <c r="R41" s="61"/>
+      <c r="S41" s="61"/>
+      <c r="T41" s="61"/>
+      <c r="U41" s="61"/>
+      <c r="V41" s="61"/>
+      <c r="W41" s="61"/>
+      <c r="X41" s="61"/>
+      <c r="Y41" s="61"/>
+      <c r="Z41" s="61"/>
+      <c r="AA41" s="61"/>
+      <c r="AB41" s="61"/>
+      <c r="AC41" s="61"/>
+      <c r="AD41" s="61"/>
+      <c r="AE41" s="61"/>
+      <c r="AF41" s="61"/>
+      <c r="AG41" s="61"/>
+      <c r="AH41" s="61"/>
+      <c r="AI41" s="61"/>
+      <c r="AJ41" s="61"/>
+      <c r="AK41" s="61"/>
+      <c r="AL41" s="61"/>
+      <c r="AM41" s="61"/>
+      <c r="AN41" s="61"/>
+      <c r="AO41" s="61"/>
+      <c r="AP41" s="61"/>
+      <c r="AQ41" s="61"/>
+      <c r="AR41" s="61"/>
+      <c r="AS41" s="61"/>
+      <c r="AT41" s="61"/>
+      <c r="AU41" s="61"/>
     </row>
     <row r="42" spans="1:47">
-      <c r="A42" s="53"/>
-      <c r="B42" s="53"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="53"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="53"/>
-      <c r="M42" s="53"/>
-      <c r="N42" s="53"/>
-      <c r="O42" s="53"/>
-      <c r="P42" s="53"/>
-      <c r="Q42" s="53"/>
-      <c r="R42" s="53"/>
-      <c r="S42" s="53"/>
-      <c r="T42" s="53"/>
-      <c r="U42" s="53"/>
-      <c r="V42" s="53"/>
-      <c r="W42" s="53"/>
-      <c r="X42" s="53"/>
-      <c r="Y42" s="53"/>
-      <c r="Z42" s="53"/>
-      <c r="AA42" s="53"/>
-      <c r="AB42" s="53"/>
-      <c r="AC42" s="53"/>
-      <c r="AD42" s="53"/>
-      <c r="AE42" s="53"/>
-      <c r="AF42" s="53"/>
-      <c r="AG42" s="53"/>
-      <c r="AH42" s="53"/>
-      <c r="AI42" s="53"/>
-      <c r="AJ42" s="53"/>
-      <c r="AK42" s="53"/>
-      <c r="AL42" s="53"/>
-      <c r="AM42" s="53"/>
-      <c r="AN42" s="53"/>
-      <c r="AO42" s="53"/>
-      <c r="AP42" s="53"/>
-      <c r="AQ42" s="53"/>
-      <c r="AR42" s="53"/>
-      <c r="AS42" s="53"/>
-      <c r="AT42" s="53"/>
-      <c r="AU42" s="53"/>
+      <c r="A42" s="61"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="61"/>
+      <c r="J42" s="61"/>
+      <c r="K42" s="61"/>
+      <c r="L42" s="61"/>
+      <c r="M42" s="61"/>
+      <c r="N42" s="61"/>
+      <c r="O42" s="61"/>
+      <c r="P42" s="61"/>
+      <c r="Q42" s="61"/>
+      <c r="R42" s="61"/>
+      <c r="S42" s="61"/>
+      <c r="T42" s="61"/>
+      <c r="U42" s="61"/>
+      <c r="V42" s="61"/>
+      <c r="W42" s="61"/>
+      <c r="X42" s="61"/>
+      <c r="Y42" s="61"/>
+      <c r="Z42" s="61"/>
+      <c r="AA42" s="61"/>
+      <c r="AB42" s="61"/>
+      <c r="AC42" s="61"/>
+      <c r="AD42" s="61"/>
+      <c r="AE42" s="61"/>
+      <c r="AF42" s="61"/>
+      <c r="AG42" s="61"/>
+      <c r="AH42" s="61"/>
+      <c r="AI42" s="61"/>
+      <c r="AJ42" s="61"/>
+      <c r="AK42" s="61"/>
+      <c r="AL42" s="61"/>
+      <c r="AM42" s="61"/>
+      <c r="AN42" s="61"/>
+      <c r="AO42" s="61"/>
+      <c r="AP42" s="61"/>
+      <c r="AQ42" s="61"/>
+      <c r="AR42" s="61"/>
+      <c r="AS42" s="61"/>
+      <c r="AT42" s="61"/>
+      <c r="AU42" s="61"/>
     </row>
     <row r="43" spans="1:47">
-      <c r="A43" s="53"/>
-      <c r="B43" s="53"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="53"/>
-      <c r="M43" s="53"/>
-      <c r="N43" s="53"/>
-      <c r="O43" s="53"/>
-      <c r="P43" s="53"/>
-      <c r="Q43" s="53"/>
-      <c r="R43" s="53"/>
-      <c r="S43" s="53"/>
-      <c r="T43" s="53"/>
-      <c r="U43" s="53"/>
-      <c r="V43" s="53"/>
-      <c r="W43" s="53"/>
-      <c r="X43" s="53"/>
-      <c r="Y43" s="53"/>
-      <c r="Z43" s="53"/>
-      <c r="AA43" s="53"/>
-      <c r="AB43" s="53"/>
-      <c r="AC43" s="53"/>
-      <c r="AD43" s="53"/>
-      <c r="AE43" s="53"/>
-      <c r="AF43" s="53"/>
-      <c r="AG43" s="53"/>
-      <c r="AH43" s="53"/>
-      <c r="AI43" s="53"/>
-      <c r="AJ43" s="53"/>
-      <c r="AK43" s="53"/>
-      <c r="AL43" s="53"/>
-      <c r="AM43" s="53"/>
-      <c r="AN43" s="53"/>
-      <c r="AO43" s="53"/>
-      <c r="AP43" s="53"/>
-      <c r="AQ43" s="53"/>
-      <c r="AR43" s="53"/>
-      <c r="AS43" s="53"/>
-      <c r="AT43" s="53"/>
-      <c r="AU43" s="53"/>
+      <c r="A43" s="61"/>
+      <c r="B43" s="61"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="61"/>
+      <c r="I43" s="61"/>
+      <c r="J43" s="61"/>
+      <c r="K43" s="61"/>
+      <c r="L43" s="61"/>
+      <c r="M43" s="61"/>
+      <c r="N43" s="61"/>
+      <c r="O43" s="61"/>
+      <c r="P43" s="61"/>
+      <c r="Q43" s="61"/>
+      <c r="R43" s="61"/>
+      <c r="S43" s="61"/>
+      <c r="T43" s="61"/>
+      <c r="U43" s="61"/>
+      <c r="V43" s="61"/>
+      <c r="W43" s="61"/>
+      <c r="X43" s="61"/>
+      <c r="Y43" s="61"/>
+      <c r="Z43" s="61"/>
+      <c r="AA43" s="61"/>
+      <c r="AB43" s="61"/>
+      <c r="AC43" s="61"/>
+      <c r="AD43" s="61"/>
+      <c r="AE43" s="61"/>
+      <c r="AF43" s="61"/>
+      <c r="AG43" s="61"/>
+      <c r="AH43" s="61"/>
+      <c r="AI43" s="61"/>
+      <c r="AJ43" s="61"/>
+      <c r="AK43" s="61"/>
+      <c r="AL43" s="61"/>
+      <c r="AM43" s="61"/>
+      <c r="AN43" s="61"/>
+      <c r="AO43" s="61"/>
+      <c r="AP43" s="61"/>
+      <c r="AQ43" s="61"/>
+      <c r="AR43" s="61"/>
+      <c r="AS43" s="61"/>
+      <c r="AT43" s="61"/>
+      <c r="AU43" s="61"/>
     </row>
     <row r="44" spans="1:47">
-      <c r="A44" s="53"/>
-      <c r="B44" s="53"/>
-      <c r="C44" s="53"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="53"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="53"/>
-      <c r="K44" s="53"/>
-      <c r="L44" s="53"/>
-      <c r="M44" s="53"/>
-      <c r="N44" s="53"/>
-      <c r="O44" s="53"/>
-      <c r="P44" s="53"/>
-      <c r="Q44" s="53"/>
-      <c r="R44" s="53"/>
-      <c r="S44" s="53"/>
-      <c r="T44" s="53"/>
-      <c r="U44" s="53"/>
-      <c r="V44" s="53"/>
-      <c r="W44" s="53"/>
-      <c r="X44" s="53"/>
-      <c r="Y44" s="53"/>
-      <c r="Z44" s="53"/>
-      <c r="AA44" s="53"/>
-      <c r="AB44" s="53"/>
-      <c r="AC44" s="53"/>
-      <c r="AD44" s="53"/>
-      <c r="AE44" s="53"/>
-      <c r="AF44" s="53"/>
-      <c r="AG44" s="53"/>
-      <c r="AH44" s="53"/>
-      <c r="AI44" s="53"/>
-      <c r="AJ44" s="53"/>
-      <c r="AK44" s="53"/>
-      <c r="AL44" s="53"/>
-      <c r="AM44" s="53"/>
-      <c r="AN44" s="53"/>
-      <c r="AO44" s="53"/>
-      <c r="AP44" s="53"/>
-      <c r="AQ44" s="53"/>
-      <c r="AR44" s="53"/>
-      <c r="AS44" s="53"/>
-      <c r="AT44" s="53"/>
-      <c r="AU44" s="53"/>
+      <c r="A44" s="61"/>
+      <c r="B44" s="61"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="61"/>
+      <c r="H44" s="61"/>
+      <c r="I44" s="61"/>
+      <c r="J44" s="61"/>
+      <c r="K44" s="61"/>
+      <c r="L44" s="61"/>
+      <c r="M44" s="61"/>
+      <c r="N44" s="61"/>
+      <c r="O44" s="61"/>
+      <c r="P44" s="61"/>
+      <c r="Q44" s="61"/>
+      <c r="R44" s="61"/>
+      <c r="S44" s="61"/>
+      <c r="T44" s="61"/>
+      <c r="U44" s="61"/>
+      <c r="V44" s="61"/>
+      <c r="W44" s="61"/>
+      <c r="X44" s="61"/>
+      <c r="Y44" s="61"/>
+      <c r="Z44" s="61"/>
+      <c r="AA44" s="61"/>
+      <c r="AB44" s="61"/>
+      <c r="AC44" s="61"/>
+      <c r="AD44" s="61"/>
+      <c r="AE44" s="61"/>
+      <c r="AF44" s="61"/>
+      <c r="AG44" s="61"/>
+      <c r="AH44" s="61"/>
+      <c r="AI44" s="61"/>
+      <c r="AJ44" s="61"/>
+      <c r="AK44" s="61"/>
+      <c r="AL44" s="61"/>
+      <c r="AM44" s="61"/>
+      <c r="AN44" s="61"/>
+      <c r="AO44" s="61"/>
+      <c r="AP44" s="61"/>
+      <c r="AQ44" s="61"/>
+      <c r="AR44" s="61"/>
+      <c r="AS44" s="61"/>
+      <c r="AT44" s="61"/>
+      <c r="AU44" s="61"/>
     </row>
     <row r="45" spans="1:47">
-      <c r="A45" s="53"/>
-      <c r="B45" s="53"/>
-      <c r="C45" s="53"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="53"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="53"/>
-      <c r="K45" s="53"/>
-      <c r="L45" s="53"/>
-      <c r="M45" s="53"/>
-      <c r="N45" s="53"/>
-      <c r="O45" s="53"/>
-      <c r="P45" s="53"/>
-      <c r="Q45" s="53"/>
-      <c r="R45" s="53"/>
-      <c r="S45" s="53"/>
-      <c r="T45" s="53"/>
-      <c r="U45" s="53"/>
-      <c r="V45" s="53"/>
-      <c r="W45" s="53"/>
-      <c r="X45" s="53"/>
-      <c r="Y45" s="53"/>
-      <c r="Z45" s="53"/>
-      <c r="AA45" s="53"/>
-      <c r="AB45" s="53"/>
-      <c r="AC45" s="53"/>
-      <c r="AD45" s="53"/>
-      <c r="AE45" s="53"/>
-      <c r="AF45" s="53"/>
-      <c r="AG45" s="53"/>
-      <c r="AH45" s="53"/>
-      <c r="AI45" s="53"/>
-      <c r="AJ45" s="53"/>
-      <c r="AK45" s="53"/>
-      <c r="AL45" s="53"/>
-      <c r="AM45" s="53"/>
-      <c r="AN45" s="53"/>
-      <c r="AO45" s="53"/>
-      <c r="AP45" s="53"/>
-      <c r="AQ45" s="53"/>
-      <c r="AR45" s="53"/>
-      <c r="AS45" s="53"/>
-      <c r="AT45" s="53"/>
-      <c r="AU45" s="53"/>
+      <c r="A45" s="61"/>
+      <c r="B45" s="61"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="61"/>
+      <c r="H45" s="61"/>
+      <c r="I45" s="61"/>
+      <c r="J45" s="61"/>
+      <c r="K45" s="61"/>
+      <c r="L45" s="61"/>
+      <c r="M45" s="61"/>
+      <c r="N45" s="61"/>
+      <c r="O45" s="61"/>
+      <c r="P45" s="61"/>
+      <c r="Q45" s="61"/>
+      <c r="R45" s="61"/>
+      <c r="S45" s="61"/>
+      <c r="T45" s="61"/>
+      <c r="U45" s="61"/>
+      <c r="V45" s="61"/>
+      <c r="W45" s="61"/>
+      <c r="X45" s="61"/>
+      <c r="Y45" s="61"/>
+      <c r="Z45" s="61"/>
+      <c r="AA45" s="61"/>
+      <c r="AB45" s="61"/>
+      <c r="AC45" s="61"/>
+      <c r="AD45" s="61"/>
+      <c r="AE45" s="61"/>
+      <c r="AF45" s="61"/>
+      <c r="AG45" s="61"/>
+      <c r="AH45" s="61"/>
+      <c r="AI45" s="61"/>
+      <c r="AJ45" s="61"/>
+      <c r="AK45" s="61"/>
+      <c r="AL45" s="61"/>
+      <c r="AM45" s="61"/>
+      <c r="AN45" s="61"/>
+      <c r="AO45" s="61"/>
+      <c r="AP45" s="61"/>
+      <c r="AQ45" s="61"/>
+      <c r="AR45" s="61"/>
+      <c r="AS45" s="61"/>
+      <c r="AT45" s="61"/>
+      <c r="AU45" s="61"/>
     </row>
     <row r="46" spans="1:47">
-      <c r="A46" s="53"/>
-      <c r="B46" s="53"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="53"/>
-      <c r="H46" s="53"/>
-      <c r="I46" s="53"/>
-      <c r="J46" s="53"/>
-      <c r="K46" s="53"/>
-      <c r="L46" s="53"/>
-      <c r="M46" s="53"/>
-      <c r="N46" s="53"/>
-      <c r="O46" s="53"/>
-      <c r="P46" s="53"/>
-      <c r="Q46" s="53"/>
-      <c r="R46" s="53"/>
-      <c r="S46" s="53"/>
-      <c r="T46" s="53"/>
-      <c r="U46" s="53"/>
-      <c r="V46" s="53"/>
-      <c r="W46" s="53"/>
-      <c r="X46" s="53"/>
-      <c r="Y46" s="53"/>
-      <c r="Z46" s="53"/>
-      <c r="AA46" s="53"/>
-      <c r="AB46" s="53"/>
-      <c r="AC46" s="53"/>
-      <c r="AD46" s="53"/>
-      <c r="AE46" s="53"/>
-      <c r="AF46" s="53"/>
-      <c r="AG46" s="53"/>
-      <c r="AH46" s="53"/>
-      <c r="AI46" s="53"/>
-      <c r="AJ46" s="53"/>
-      <c r="AK46" s="53"/>
-      <c r="AL46" s="53"/>
-      <c r="AM46" s="53"/>
-      <c r="AN46" s="53"/>
-      <c r="AO46" s="53"/>
-      <c r="AP46" s="53"/>
-      <c r="AQ46" s="53"/>
-      <c r="AR46" s="53"/>
-      <c r="AS46" s="53"/>
-      <c r="AT46" s="53"/>
-      <c r="AU46" s="53"/>
+      <c r="A46" s="61"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="61"/>
+      <c r="G46" s="61"/>
+      <c r="H46" s="61"/>
+      <c r="I46" s="61"/>
+      <c r="J46" s="61"/>
+      <c r="K46" s="61"/>
+      <c r="L46" s="61"/>
+      <c r="M46" s="61"/>
+      <c r="N46" s="61"/>
+      <c r="O46" s="61"/>
+      <c r="P46" s="61"/>
+      <c r="Q46" s="61"/>
+      <c r="R46" s="61"/>
+      <c r="S46" s="61"/>
+      <c r="T46" s="61"/>
+      <c r="U46" s="61"/>
+      <c r="V46" s="61"/>
+      <c r="W46" s="61"/>
+      <c r="X46" s="61"/>
+      <c r="Y46" s="61"/>
+      <c r="Z46" s="61"/>
+      <c r="AA46" s="61"/>
+      <c r="AB46" s="61"/>
+      <c r="AC46" s="61"/>
+      <c r="AD46" s="61"/>
+      <c r="AE46" s="61"/>
+      <c r="AF46" s="61"/>
+      <c r="AG46" s="61"/>
+      <c r="AH46" s="61"/>
+      <c r="AI46" s="61"/>
+      <c r="AJ46" s="61"/>
+      <c r="AK46" s="61"/>
+      <c r="AL46" s="61"/>
+      <c r="AM46" s="61"/>
+      <c r="AN46" s="61"/>
+      <c r="AO46" s="61"/>
+      <c r="AP46" s="61"/>
+      <c r="AQ46" s="61"/>
+      <c r="AR46" s="61"/>
+      <c r="AS46" s="61"/>
+      <c r="AT46" s="61"/>
+      <c r="AU46" s="61"/>
     </row>
     <row r="47" spans="1:47">
-      <c r="A47" s="53"/>
-      <c r="B47" s="53"/>
-      <c r="C47" s="53"/>
-      <c r="D47" s="53"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="53"/>
-      <c r="I47" s="53"/>
-      <c r="J47" s="53"/>
-      <c r="K47" s="53"/>
-      <c r="L47" s="53"/>
-      <c r="M47" s="53"/>
-      <c r="N47" s="53"/>
-      <c r="O47" s="53"/>
-      <c r="P47" s="53"/>
-      <c r="Q47" s="53"/>
-      <c r="R47" s="53"/>
-      <c r="S47" s="53"/>
-      <c r="T47" s="53"/>
-      <c r="U47" s="53"/>
-      <c r="V47" s="53"/>
-      <c r="W47" s="53"/>
-      <c r="X47" s="53"/>
-      <c r="Y47" s="53"/>
-      <c r="Z47" s="53"/>
-      <c r="AA47" s="53"/>
-      <c r="AB47" s="53"/>
-      <c r="AC47" s="53"/>
-      <c r="AD47" s="53"/>
-      <c r="AE47" s="53"/>
-      <c r="AF47" s="53"/>
-      <c r="AG47" s="53"/>
-      <c r="AH47" s="53"/>
-      <c r="AI47" s="53"/>
-      <c r="AJ47" s="53"/>
-      <c r="AK47" s="53"/>
-      <c r="AL47" s="53"/>
-      <c r="AM47" s="53"/>
-      <c r="AN47" s="53"/>
-      <c r="AO47" s="53"/>
-      <c r="AP47" s="53"/>
-      <c r="AQ47" s="53"/>
-      <c r="AR47" s="53"/>
-      <c r="AS47" s="53"/>
-      <c r="AT47" s="53"/>
-      <c r="AU47" s="53"/>
+      <c r="A47" s="61"/>
+      <c r="B47" s="61"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="61"/>
+      <c r="H47" s="61"/>
+      <c r="I47" s="61"/>
+      <c r="J47" s="61"/>
+      <c r="K47" s="61"/>
+      <c r="L47" s="61"/>
+      <c r="M47" s="61"/>
+      <c r="N47" s="61"/>
+      <c r="O47" s="61"/>
+      <c r="P47" s="61"/>
+      <c r="Q47" s="61"/>
+      <c r="R47" s="61"/>
+      <c r="S47" s="61"/>
+      <c r="T47" s="61"/>
+      <c r="U47" s="61"/>
+      <c r="V47" s="61"/>
+      <c r="W47" s="61"/>
+      <c r="X47" s="61"/>
+      <c r="Y47" s="61"/>
+      <c r="Z47" s="61"/>
+      <c r="AA47" s="61"/>
+      <c r="AB47" s="61"/>
+      <c r="AC47" s="61"/>
+      <c r="AD47" s="61"/>
+      <c r="AE47" s="61"/>
+      <c r="AF47" s="61"/>
+      <c r="AG47" s="61"/>
+      <c r="AH47" s="61"/>
+      <c r="AI47" s="61"/>
+      <c r="AJ47" s="61"/>
+      <c r="AK47" s="61"/>
+      <c r="AL47" s="61"/>
+      <c r="AM47" s="61"/>
+      <c r="AN47" s="61"/>
+      <c r="AO47" s="61"/>
+      <c r="AP47" s="61"/>
+      <c r="AQ47" s="61"/>
+      <c r="AR47" s="61"/>
+      <c r="AS47" s="61"/>
+      <c r="AT47" s="61"/>
+      <c r="AU47" s="61"/>
     </row>
     <row r="48" spans="1:47">
-      <c r="A48" s="53"/>
-      <c r="B48" s="53"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="53"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="53"/>
-      <c r="G48" s="53"/>
-      <c r="H48" s="53"/>
-      <c r="I48" s="53"/>
-      <c r="J48" s="53"/>
-      <c r="K48" s="53"/>
-      <c r="L48" s="53"/>
-      <c r="M48" s="53"/>
-      <c r="N48" s="53"/>
-      <c r="O48" s="53"/>
-      <c r="P48" s="53"/>
-      <c r="Q48" s="53"/>
-      <c r="R48" s="53"/>
-      <c r="S48" s="53"/>
-      <c r="T48" s="53"/>
-      <c r="U48" s="53"/>
-      <c r="V48" s="53"/>
-      <c r="W48" s="53"/>
-      <c r="X48" s="53"/>
-      <c r="Y48" s="53"/>
-      <c r="Z48" s="53"/>
-      <c r="AA48" s="53"/>
-      <c r="AB48" s="53"/>
-      <c r="AC48" s="53"/>
-      <c r="AD48" s="53"/>
-      <c r="AE48" s="53"/>
-      <c r="AF48" s="53"/>
-      <c r="AG48" s="53"/>
-      <c r="AH48" s="53"/>
-      <c r="AI48" s="53"/>
-      <c r="AJ48" s="53"/>
-      <c r="AK48" s="53"/>
-      <c r="AL48" s="53"/>
-      <c r="AM48" s="53"/>
-      <c r="AN48" s="53"/>
-      <c r="AO48" s="53"/>
-      <c r="AP48" s="53"/>
-      <c r="AQ48" s="53"/>
-      <c r="AR48" s="53"/>
-      <c r="AS48" s="53"/>
-      <c r="AT48" s="53"/>
-      <c r="AU48" s="53"/>
+      <c r="A48" s="61"/>
+      <c r="B48" s="61"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="61"/>
+      <c r="H48" s="61"/>
+      <c r="I48" s="61"/>
+      <c r="J48" s="61"/>
+      <c r="K48" s="61"/>
+      <c r="L48" s="61"/>
+      <c r="M48" s="61"/>
+      <c r="N48" s="61"/>
+      <c r="O48" s="61"/>
+      <c r="P48" s="61"/>
+      <c r="Q48" s="61"/>
+      <c r="R48" s="61"/>
+      <c r="S48" s="61"/>
+      <c r="T48" s="61"/>
+      <c r="U48" s="61"/>
+      <c r="V48" s="61"/>
+      <c r="W48" s="61"/>
+      <c r="X48" s="61"/>
+      <c r="Y48" s="61"/>
+      <c r="Z48" s="61"/>
+      <c r="AA48" s="61"/>
+      <c r="AB48" s="61"/>
+      <c r="AC48" s="61"/>
+      <c r="AD48" s="61"/>
+      <c r="AE48" s="61"/>
+      <c r="AF48" s="61"/>
+      <c r="AG48" s="61"/>
+      <c r="AH48" s="61"/>
+      <c r="AI48" s="61"/>
+      <c r="AJ48" s="61"/>
+      <c r="AK48" s="61"/>
+      <c r="AL48" s="61"/>
+      <c r="AM48" s="61"/>
+      <c r="AN48" s="61"/>
+      <c r="AO48" s="61"/>
+      <c r="AP48" s="61"/>
+      <c r="AQ48" s="61"/>
+      <c r="AR48" s="61"/>
+      <c r="AS48" s="61"/>
+      <c r="AT48" s="61"/>
+      <c r="AU48" s="61"/>
     </row>
     <row r="49" spans="1:47">
-      <c r="A49" s="53"/>
-      <c r="B49" s="53"/>
-      <c r="C49" s="53"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="53"/>
-      <c r="G49" s="53"/>
-      <c r="H49" s="53"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="53"/>
-      <c r="K49" s="53"/>
-      <c r="L49" s="53"/>
-      <c r="M49" s="53"/>
-      <c r="N49" s="53"/>
-      <c r="O49" s="53"/>
-      <c r="P49" s="53"/>
-      <c r="Q49" s="53"/>
-      <c r="R49" s="53"/>
-      <c r="S49" s="53"/>
-      <c r="T49" s="53"/>
-      <c r="U49" s="53"/>
-      <c r="V49" s="53"/>
-      <c r="W49" s="53"/>
-      <c r="X49" s="53"/>
-      <c r="Y49" s="53"/>
-      <c r="Z49" s="53"/>
-      <c r="AA49" s="53"/>
-      <c r="AB49" s="53"/>
-      <c r="AC49" s="53"/>
-      <c r="AD49" s="53"/>
-      <c r="AE49" s="53"/>
-      <c r="AF49" s="53"/>
-      <c r="AG49" s="53"/>
-      <c r="AH49" s="53"/>
-      <c r="AI49" s="53"/>
-      <c r="AJ49" s="53"/>
-      <c r="AK49" s="53"/>
-      <c r="AL49" s="53"/>
-      <c r="AM49" s="53"/>
-      <c r="AN49" s="53"/>
-      <c r="AO49" s="53"/>
-      <c r="AP49" s="53"/>
-      <c r="AQ49" s="53"/>
-      <c r="AR49" s="53"/>
-      <c r="AS49" s="53"/>
-      <c r="AT49" s="53"/>
-      <c r="AU49" s="53"/>
+      <c r="A49" s="61"/>
+      <c r="B49" s="61"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="61"/>
+      <c r="I49" s="61"/>
+      <c r="J49" s="61"/>
+      <c r="K49" s="61"/>
+      <c r="L49" s="61"/>
+      <c r="M49" s="61"/>
+      <c r="N49" s="61"/>
+      <c r="O49" s="61"/>
+      <c r="P49" s="61"/>
+      <c r="Q49" s="61"/>
+      <c r="R49" s="61"/>
+      <c r="S49" s="61"/>
+      <c r="T49" s="61"/>
+      <c r="U49" s="61"/>
+      <c r="V49" s="61"/>
+      <c r="W49" s="61"/>
+      <c r="X49" s="61"/>
+      <c r="Y49" s="61"/>
+      <c r="Z49" s="61"/>
+      <c r="AA49" s="61"/>
+      <c r="AB49" s="61"/>
+      <c r="AC49" s="61"/>
+      <c r="AD49" s="61"/>
+      <c r="AE49" s="61"/>
+      <c r="AF49" s="61"/>
+      <c r="AG49" s="61"/>
+      <c r="AH49" s="61"/>
+      <c r="AI49" s="61"/>
+      <c r="AJ49" s="61"/>
+      <c r="AK49" s="61"/>
+      <c r="AL49" s="61"/>
+      <c r="AM49" s="61"/>
+      <c r="AN49" s="61"/>
+      <c r="AO49" s="61"/>
+      <c r="AP49" s="61"/>
+      <c r="AQ49" s="61"/>
+      <c r="AR49" s="61"/>
+      <c r="AS49" s="61"/>
+      <c r="AT49" s="61"/>
+      <c r="AU49" s="61"/>
     </row>
     <row r="50" spans="1:47">
-      <c r="A50" s="53"/>
-      <c r="B50" s="53"/>
-      <c r="C50" s="53"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="53"/>
-      <c r="G50" s="53"/>
-      <c r="H50" s="53"/>
-      <c r="I50" s="53"/>
-      <c r="J50" s="53"/>
-      <c r="K50" s="53"/>
-      <c r="L50" s="53"/>
-      <c r="M50" s="53"/>
-      <c r="N50" s="53"/>
-      <c r="O50" s="53"/>
-      <c r="P50" s="53"/>
-      <c r="Q50" s="53"/>
-      <c r="R50" s="53"/>
-      <c r="S50" s="53"/>
-      <c r="T50" s="53"/>
-      <c r="U50" s="53"/>
-      <c r="V50" s="53"/>
-      <c r="W50" s="53"/>
-      <c r="X50" s="53"/>
-      <c r="Y50" s="53"/>
-      <c r="Z50" s="53"/>
-      <c r="AA50" s="53"/>
-      <c r="AB50" s="53"/>
-      <c r="AC50" s="53"/>
-      <c r="AD50" s="53"/>
-      <c r="AE50" s="53"/>
-      <c r="AF50" s="53"/>
-      <c r="AG50" s="53"/>
-      <c r="AH50" s="53"/>
-      <c r="AI50" s="53"/>
-      <c r="AJ50" s="53"/>
-      <c r="AK50" s="53"/>
-      <c r="AL50" s="53"/>
-      <c r="AM50" s="53"/>
-      <c r="AN50" s="53"/>
-      <c r="AO50" s="53"/>
-      <c r="AP50" s="53"/>
-      <c r="AQ50" s="53"/>
-      <c r="AR50" s="53"/>
-      <c r="AS50" s="53"/>
-      <c r="AT50" s="53"/>
-      <c r="AU50" s="53"/>
+      <c r="A50" s="61"/>
+      <c r="B50" s="61"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="61"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="61"/>
+      <c r="H50" s="61"/>
+      <c r="I50" s="61"/>
+      <c r="J50" s="61"/>
+      <c r="K50" s="61"/>
+      <c r="L50" s="61"/>
+      <c r="M50" s="61"/>
+      <c r="N50" s="61"/>
+      <c r="O50" s="61"/>
+      <c r="P50" s="61"/>
+      <c r="Q50" s="61"/>
+      <c r="R50" s="61"/>
+      <c r="S50" s="61"/>
+      <c r="T50" s="61"/>
+      <c r="U50" s="61"/>
+      <c r="V50" s="61"/>
+      <c r="W50" s="61"/>
+      <c r="X50" s="61"/>
+      <c r="Y50" s="61"/>
+      <c r="Z50" s="61"/>
+      <c r="AA50" s="61"/>
+      <c r="AB50" s="61"/>
+      <c r="AC50" s="61"/>
+      <c r="AD50" s="61"/>
+      <c r="AE50" s="61"/>
+      <c r="AF50" s="61"/>
+      <c r="AG50" s="61"/>
+      <c r="AH50" s="61"/>
+      <c r="AI50" s="61"/>
+      <c r="AJ50" s="61"/>
+      <c r="AK50" s="61"/>
+      <c r="AL50" s="61"/>
+      <c r="AM50" s="61"/>
+      <c r="AN50" s="61"/>
+      <c r="AO50" s="61"/>
+      <c r="AP50" s="61"/>
+      <c r="AQ50" s="61"/>
+      <c r="AR50" s="61"/>
+      <c r="AS50" s="61"/>
+      <c r="AT50" s="61"/>
+      <c r="AU50" s="61"/>
     </row>
     <row r="51" spans="1:47">
-      <c r="A51" s="53"/>
-      <c r="B51" s="53"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="53"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="53"/>
-      <c r="G51" s="53"/>
-      <c r="H51" s="53"/>
-      <c r="I51" s="53"/>
-      <c r="J51" s="53"/>
-      <c r="K51" s="53"/>
-      <c r="L51" s="53"/>
-      <c r="M51" s="53"/>
-      <c r="N51" s="53"/>
-      <c r="O51" s="53"/>
-      <c r="P51" s="53"/>
-      <c r="Q51" s="53"/>
-      <c r="R51" s="53"/>
-      <c r="S51" s="53"/>
-      <c r="T51" s="53"/>
-      <c r="U51" s="53"/>
-      <c r="V51" s="53"/>
-      <c r="W51" s="53"/>
-      <c r="X51" s="53"/>
-      <c r="Y51" s="53"/>
-      <c r="Z51" s="53"/>
-      <c r="AA51" s="53"/>
-      <c r="AB51" s="53"/>
-      <c r="AC51" s="53"/>
-      <c r="AD51" s="53"/>
-      <c r="AE51" s="53"/>
-      <c r="AF51" s="53"/>
-      <c r="AG51" s="53"/>
-      <c r="AH51" s="53"/>
-      <c r="AI51" s="53"/>
-      <c r="AJ51" s="53"/>
-      <c r="AK51" s="53"/>
-      <c r="AL51" s="53"/>
-      <c r="AM51" s="53"/>
-      <c r="AN51" s="53"/>
-      <c r="AO51" s="53"/>
-      <c r="AP51" s="53"/>
-      <c r="AQ51" s="53"/>
-      <c r="AR51" s="53"/>
-      <c r="AS51" s="53"/>
-      <c r="AT51" s="53"/>
-      <c r="AU51" s="53"/>
+      <c r="A51" s="61"/>
+      <c r="B51" s="61"/>
+      <c r="C51" s="61"/>
+      <c r="D51" s="61"/>
+      <c r="E51" s="61"/>
+      <c r="F51" s="61"/>
+      <c r="G51" s="61"/>
+      <c r="H51" s="61"/>
+      <c r="I51" s="61"/>
+      <c r="J51" s="61"/>
+      <c r="K51" s="61"/>
+      <c r="L51" s="61"/>
+      <c r="M51" s="61"/>
+      <c r="N51" s="61"/>
+      <c r="O51" s="61"/>
+      <c r="P51" s="61"/>
+      <c r="Q51" s="61"/>
+      <c r="R51" s="61"/>
+      <c r="S51" s="61"/>
+      <c r="T51" s="61"/>
+      <c r="U51" s="61"/>
+      <c r="V51" s="61"/>
+      <c r="W51" s="61"/>
+      <c r="X51" s="61"/>
+      <c r="Y51" s="61"/>
+      <c r="Z51" s="61"/>
+      <c r="AA51" s="61"/>
+      <c r="AB51" s="61"/>
+      <c r="AC51" s="61"/>
+      <c r="AD51" s="61"/>
+      <c r="AE51" s="61"/>
+      <c r="AF51" s="61"/>
+      <c r="AG51" s="61"/>
+      <c r="AH51" s="61"/>
+      <c r="AI51" s="61"/>
+      <c r="AJ51" s="61"/>
+      <c r="AK51" s="61"/>
+      <c r="AL51" s="61"/>
+      <c r="AM51" s="61"/>
+      <c r="AN51" s="61"/>
+      <c r="AO51" s="61"/>
+      <c r="AP51" s="61"/>
+      <c r="AQ51" s="61"/>
+      <c r="AR51" s="61"/>
+      <c r="AS51" s="61"/>
+      <c r="AT51" s="61"/>
+      <c r="AU51" s="61"/>
     </row>
     <row r="52" spans="1:47">
-      <c r="A52" s="53"/>
-      <c r="B52" s="53"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="53"/>
-      <c r="G52" s="53"/>
-      <c r="H52" s="53"/>
-      <c r="I52" s="53"/>
-      <c r="J52" s="53"/>
-      <c r="K52" s="53"/>
-      <c r="L52" s="53"/>
-      <c r="M52" s="53"/>
-      <c r="N52" s="53"/>
-      <c r="O52" s="53"/>
-      <c r="P52" s="53"/>
-      <c r="Q52" s="53"/>
-      <c r="R52" s="53"/>
-      <c r="S52" s="53"/>
-      <c r="T52" s="53"/>
-      <c r="U52" s="53"/>
-      <c r="V52" s="53"/>
-      <c r="W52" s="53"/>
-      <c r="X52" s="53"/>
-      <c r="Y52" s="53"/>
-      <c r="Z52" s="53"/>
-      <c r="AA52" s="53"/>
-      <c r="AB52" s="53"/>
-      <c r="AC52" s="53"/>
-      <c r="AD52" s="53"/>
-      <c r="AE52" s="53"/>
-      <c r="AF52" s="53"/>
-      <c r="AG52" s="53"/>
-      <c r="AH52" s="53"/>
-      <c r="AI52" s="53"/>
-      <c r="AJ52" s="53"/>
-      <c r="AK52" s="53"/>
-      <c r="AL52" s="53"/>
-      <c r="AM52" s="53"/>
-      <c r="AN52" s="53"/>
-      <c r="AO52" s="53"/>
-      <c r="AP52" s="53"/>
-      <c r="AQ52" s="53"/>
-      <c r="AR52" s="53"/>
-      <c r="AS52" s="53"/>
-      <c r="AT52" s="53"/>
-      <c r="AU52" s="53"/>
+      <c r="A52" s="61"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="61"/>
+      <c r="G52" s="61"/>
+      <c r="H52" s="61"/>
+      <c r="I52" s="61"/>
+      <c r="J52" s="61"/>
+      <c r="K52" s="61"/>
+      <c r="L52" s="61"/>
+      <c r="M52" s="61"/>
+      <c r="N52" s="61"/>
+      <c r="O52" s="61"/>
+      <c r="P52" s="61"/>
+      <c r="Q52" s="61"/>
+      <c r="R52" s="61"/>
+      <c r="S52" s="61"/>
+      <c r="T52" s="61"/>
+      <c r="U52" s="61"/>
+      <c r="V52" s="61"/>
+      <c r="W52" s="61"/>
+      <c r="X52" s="61"/>
+      <c r="Y52" s="61"/>
+      <c r="Z52" s="61"/>
+      <c r="AA52" s="61"/>
+      <c r="AB52" s="61"/>
+      <c r="AC52" s="61"/>
+      <c r="AD52" s="61"/>
+      <c r="AE52" s="61"/>
+      <c r="AF52" s="61"/>
+      <c r="AG52" s="61"/>
+      <c r="AH52" s="61"/>
+      <c r="AI52" s="61"/>
+      <c r="AJ52" s="61"/>
+      <c r="AK52" s="61"/>
+      <c r="AL52" s="61"/>
+      <c r="AM52" s="61"/>
+      <c r="AN52" s="61"/>
+      <c r="AO52" s="61"/>
+      <c r="AP52" s="61"/>
+      <c r="AQ52" s="61"/>
+      <c r="AR52" s="61"/>
+      <c r="AS52" s="61"/>
+      <c r="AT52" s="61"/>
+      <c r="AU52" s="61"/>
     </row>
     <row r="53" spans="1:47">
-      <c r="A53" s="53"/>
-      <c r="B53" s="53"/>
-      <c r="C53" s="53"/>
-      <c r="D53" s="53"/>
-      <c r="E53" s="53"/>
-      <c r="F53" s="53"/>
-      <c r="G53" s="53"/>
-      <c r="H53" s="53"/>
-      <c r="I53" s="53"/>
-      <c r="J53" s="53"/>
-      <c r="K53" s="53"/>
-      <c r="L53" s="53"/>
-      <c r="M53" s="53"/>
-      <c r="N53" s="53"/>
-      <c r="O53" s="53"/>
-      <c r="P53" s="53"/>
-      <c r="Q53" s="53"/>
-      <c r="R53" s="53"/>
-      <c r="S53" s="53"/>
-      <c r="T53" s="53"/>
-      <c r="U53" s="53"/>
-      <c r="V53" s="53"/>
-      <c r="W53" s="53"/>
-      <c r="X53" s="53"/>
-      <c r="Y53" s="53"/>
-      <c r="Z53" s="53"/>
-      <c r="AA53" s="53"/>
-      <c r="AB53" s="53"/>
-      <c r="AC53" s="53"/>
-      <c r="AD53" s="53"/>
-      <c r="AE53" s="53"/>
-      <c r="AF53" s="53"/>
-      <c r="AG53" s="53"/>
-      <c r="AH53" s="53"/>
-      <c r="AI53" s="53"/>
-      <c r="AJ53" s="53"/>
-      <c r="AK53" s="53"/>
-      <c r="AL53" s="53"/>
-      <c r="AM53" s="53"/>
-      <c r="AN53" s="53"/>
-      <c r="AO53" s="53"/>
-      <c r="AP53" s="53"/>
-      <c r="AQ53" s="53"/>
-      <c r="AR53" s="53"/>
-      <c r="AS53" s="53"/>
-      <c r="AT53" s="53"/>
-      <c r="AU53" s="53"/>
+      <c r="A53" s="61"/>
+      <c r="B53" s="61"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="61"/>
+      <c r="F53" s="61"/>
+      <c r="G53" s="61"/>
+      <c r="H53" s="61"/>
+      <c r="I53" s="61"/>
+      <c r="J53" s="61"/>
+      <c r="K53" s="61"/>
+      <c r="L53" s="61"/>
+      <c r="M53" s="61"/>
+      <c r="N53" s="61"/>
+      <c r="O53" s="61"/>
+      <c r="P53" s="61"/>
+      <c r="Q53" s="61"/>
+      <c r="R53" s="61"/>
+      <c r="S53" s="61"/>
+      <c r="T53" s="61"/>
+      <c r="U53" s="61"/>
+      <c r="V53" s="61"/>
+      <c r="W53" s="61"/>
+      <c r="X53" s="61"/>
+      <c r="Y53" s="61"/>
+      <c r="Z53" s="61"/>
+      <c r="AA53" s="61"/>
+      <c r="AB53" s="61"/>
+      <c r="AC53" s="61"/>
+      <c r="AD53" s="61"/>
+      <c r="AE53" s="61"/>
+      <c r="AF53" s="61"/>
+      <c r="AG53" s="61"/>
+      <c r="AH53" s="61"/>
+      <c r="AI53" s="61"/>
+      <c r="AJ53" s="61"/>
+      <c r="AK53" s="61"/>
+      <c r="AL53" s="61"/>
+      <c r="AM53" s="61"/>
+      <c r="AN53" s="61"/>
+      <c r="AO53" s="61"/>
+      <c r="AP53" s="61"/>
+      <c r="AQ53" s="61"/>
+      <c r="AR53" s="61"/>
+      <c r="AS53" s="61"/>
+      <c r="AT53" s="61"/>
+      <c r="AU53" s="61"/>
     </row>
     <row r="54" spans="1:47">
-      <c r="A54" s="53"/>
-      <c r="B54" s="53"/>
-      <c r="C54" s="53"/>
-      <c r="D54" s="53"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="53"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="53"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="53"/>
-      <c r="K54" s="53"/>
-      <c r="L54" s="53"/>
-      <c r="M54" s="53"/>
-      <c r="N54" s="53"/>
-      <c r="O54" s="53"/>
-      <c r="P54" s="53"/>
-      <c r="Q54" s="53"/>
-      <c r="R54" s="53"/>
-      <c r="S54" s="53"/>
-      <c r="T54" s="53"/>
-      <c r="U54" s="53"/>
-      <c r="V54" s="53"/>
-      <c r="W54" s="53"/>
-      <c r="X54" s="53"/>
-      <c r="Y54" s="53"/>
-      <c r="Z54" s="53"/>
-      <c r="AA54" s="53"/>
-      <c r="AB54" s="53"/>
-      <c r="AC54" s="53"/>
-      <c r="AD54" s="53"/>
-      <c r="AE54" s="53"/>
-      <c r="AF54" s="53"/>
-      <c r="AG54" s="53"/>
-      <c r="AH54" s="53"/>
-      <c r="AI54" s="53"/>
-      <c r="AJ54" s="53"/>
-      <c r="AK54" s="53"/>
-      <c r="AL54" s="53"/>
-      <c r="AM54" s="53"/>
-      <c r="AN54" s="53"/>
-      <c r="AO54" s="53"/>
-      <c r="AP54" s="53"/>
-      <c r="AQ54" s="53"/>
-      <c r="AR54" s="53"/>
-      <c r="AS54" s="53"/>
-      <c r="AT54" s="53"/>
-      <c r="AU54" s="53"/>
+      <c r="A54" s="61"/>
+      <c r="B54" s="61"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="61"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="61"/>
+      <c r="G54" s="61"/>
+      <c r="H54" s="61"/>
+      <c r="I54" s="61"/>
+      <c r="J54" s="61"/>
+      <c r="K54" s="61"/>
+      <c r="L54" s="61"/>
+      <c r="M54" s="61"/>
+      <c r="N54" s="61"/>
+      <c r="O54" s="61"/>
+      <c r="P54" s="61"/>
+      <c r="Q54" s="61"/>
+      <c r="R54" s="61"/>
+      <c r="S54" s="61"/>
+      <c r="T54" s="61"/>
+      <c r="U54" s="61"/>
+      <c r="V54" s="61"/>
+      <c r="W54" s="61"/>
+      <c r="X54" s="61"/>
+      <c r="Y54" s="61"/>
+      <c r="Z54" s="61"/>
+      <c r="AA54" s="61"/>
+      <c r="AB54" s="61"/>
+      <c r="AC54" s="61"/>
+      <c r="AD54" s="61"/>
+      <c r="AE54" s="61"/>
+      <c r="AF54" s="61"/>
+      <c r="AG54" s="61"/>
+      <c r="AH54" s="61"/>
+      <c r="AI54" s="61"/>
+      <c r="AJ54" s="61"/>
+      <c r="AK54" s="61"/>
+      <c r="AL54" s="61"/>
+      <c r="AM54" s="61"/>
+      <c r="AN54" s="61"/>
+      <c r="AO54" s="61"/>
+      <c r="AP54" s="61"/>
+      <c r="AQ54" s="61"/>
+      <c r="AR54" s="61"/>
+      <c r="AS54" s="61"/>
+      <c r="AT54" s="61"/>
+      <c r="AU54" s="61"/>
     </row>
     <row r="55" spans="1:47">
-      <c r="A55" s="53"/>
-      <c r="B55" s="53"/>
-      <c r="C55" s="53"/>
-      <c r="D55" s="53"/>
-      <c r="E55" s="53"/>
-      <c r="F55" s="53"/>
-      <c r="G55" s="53"/>
-      <c r="H55" s="53"/>
-      <c r="I55" s="53"/>
-      <c r="J55" s="53"/>
-      <c r="K55" s="53"/>
-      <c r="L55" s="53"/>
-      <c r="M55" s="53"/>
-      <c r="N55" s="53"/>
-      <c r="O55" s="53"/>
-      <c r="P55" s="53"/>
-      <c r="Q55" s="53"/>
-      <c r="R55" s="53"/>
-      <c r="S55" s="53"/>
-      <c r="T55" s="53"/>
-      <c r="U55" s="53"/>
-      <c r="V55" s="53"/>
-      <c r="W55" s="53"/>
-      <c r="X55" s="53"/>
-      <c r="Y55" s="53"/>
-      <c r="Z55" s="53"/>
-      <c r="AA55" s="53"/>
-      <c r="AB55" s="53"/>
-      <c r="AC55" s="53"/>
-      <c r="AD55" s="53"/>
-      <c r="AE55" s="53"/>
-      <c r="AF55" s="53"/>
-      <c r="AG55" s="53"/>
-      <c r="AH55" s="53"/>
-      <c r="AI55" s="53"/>
-      <c r="AJ55" s="53"/>
-      <c r="AK55" s="53"/>
-      <c r="AL55" s="53"/>
-      <c r="AM55" s="53"/>
-      <c r="AN55" s="53"/>
-      <c r="AO55" s="53"/>
-      <c r="AP55" s="53"/>
-      <c r="AQ55" s="53"/>
-      <c r="AR55" s="53"/>
-      <c r="AS55" s="53"/>
-      <c r="AT55" s="53"/>
-      <c r="AU55" s="53"/>
+      <c r="A55" s="61"/>
+      <c r="B55" s="61"/>
+      <c r="C55" s="61"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="61"/>
+      <c r="F55" s="61"/>
+      <c r="G55" s="61"/>
+      <c r="H55" s="61"/>
+      <c r="I55" s="61"/>
+      <c r="J55" s="61"/>
+      <c r="K55" s="61"/>
+      <c r="L55" s="61"/>
+      <c r="M55" s="61"/>
+      <c r="N55" s="61"/>
+      <c r="O55" s="61"/>
+      <c r="P55" s="61"/>
+      <c r="Q55" s="61"/>
+      <c r="R55" s="61"/>
+      <c r="S55" s="61"/>
+      <c r="T55" s="61"/>
+      <c r="U55" s="61"/>
+      <c r="V55" s="61"/>
+      <c r="W55" s="61"/>
+      <c r="X55" s="61"/>
+      <c r="Y55" s="61"/>
+      <c r="Z55" s="61"/>
+      <c r="AA55" s="61"/>
+      <c r="AB55" s="61"/>
+      <c r="AC55" s="61"/>
+      <c r="AD55" s="61"/>
+      <c r="AE55" s="61"/>
+      <c r="AF55" s="61"/>
+      <c r="AG55" s="61"/>
+      <c r="AH55" s="61"/>
+      <c r="AI55" s="61"/>
+      <c r="AJ55" s="61"/>
+      <c r="AK55" s="61"/>
+      <c r="AL55" s="61"/>
+      <c r="AM55" s="61"/>
+      <c r="AN55" s="61"/>
+      <c r="AO55" s="61"/>
+      <c r="AP55" s="61"/>
+      <c r="AQ55" s="61"/>
+      <c r="AR55" s="61"/>
+      <c r="AS55" s="61"/>
+      <c r="AT55" s="61"/>
+      <c r="AU55" s="61"/>
     </row>
     <row r="56" spans="1:47">
-      <c r="A56" s="53"/>
-      <c r="B56" s="53"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="53"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="53"/>
-      <c r="G56" s="53"/>
-      <c r="H56" s="53"/>
-      <c r="I56" s="53"/>
-      <c r="J56" s="53"/>
-      <c r="K56" s="53"/>
-      <c r="L56" s="53"/>
-      <c r="M56" s="53"/>
-      <c r="N56" s="53"/>
-      <c r="O56" s="53"/>
-      <c r="P56" s="53"/>
-      <c r="Q56" s="53"/>
-      <c r="R56" s="53"/>
-      <c r="S56" s="53"/>
-      <c r="T56" s="53"/>
-      <c r="U56" s="53"/>
-      <c r="V56" s="53"/>
-      <c r="W56" s="53"/>
-      <c r="X56" s="53"/>
-      <c r="Y56" s="53"/>
-      <c r="Z56" s="53"/>
-      <c r="AA56" s="53"/>
-      <c r="AB56" s="53"/>
-      <c r="AC56" s="53"/>
-      <c r="AD56" s="53"/>
-      <c r="AE56" s="53"/>
-      <c r="AF56" s="53"/>
-      <c r="AG56" s="53"/>
-      <c r="AH56" s="53"/>
-      <c r="AI56" s="53"/>
-      <c r="AJ56" s="53"/>
-      <c r="AK56" s="53"/>
-      <c r="AL56" s="53"/>
-      <c r="AM56" s="53"/>
-      <c r="AN56" s="53"/>
-      <c r="AO56" s="53"/>
-      <c r="AP56" s="53"/>
-      <c r="AQ56" s="53"/>
-      <c r="AR56" s="53"/>
-      <c r="AS56" s="53"/>
-      <c r="AT56" s="53"/>
-      <c r="AU56" s="53"/>
+      <c r="A56" s="61"/>
+      <c r="B56" s="61"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="61"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="61"/>
+      <c r="G56" s="61"/>
+      <c r="H56" s="61"/>
+      <c r="I56" s="61"/>
+      <c r="J56" s="61"/>
+      <c r="K56" s="61"/>
+      <c r="L56" s="61"/>
+      <c r="M56" s="61"/>
+      <c r="N56" s="61"/>
+      <c r="O56" s="61"/>
+      <c r="P56" s="61"/>
+      <c r="Q56" s="61"/>
+      <c r="R56" s="61"/>
+      <c r="S56" s="61"/>
+      <c r="T56" s="61"/>
+      <c r="U56" s="61"/>
+      <c r="V56" s="61"/>
+      <c r="W56" s="61"/>
+      <c r="X56" s="61"/>
+      <c r="Y56" s="61"/>
+      <c r="Z56" s="61"/>
+      <c r="AA56" s="61"/>
+      <c r="AB56" s="61"/>
+      <c r="AC56" s="61"/>
+      <c r="AD56" s="61"/>
+      <c r="AE56" s="61"/>
+      <c r="AF56" s="61"/>
+      <c r="AG56" s="61"/>
+      <c r="AH56" s="61"/>
+      <c r="AI56" s="61"/>
+      <c r="AJ56" s="61"/>
+      <c r="AK56" s="61"/>
+      <c r="AL56" s="61"/>
+      <c r="AM56" s="61"/>
+      <c r="AN56" s="61"/>
+      <c r="AO56" s="61"/>
+      <c r="AP56" s="61"/>
+      <c r="AQ56" s="61"/>
+      <c r="AR56" s="61"/>
+      <c r="AS56" s="61"/>
+      <c r="AT56" s="61"/>
+      <c r="AU56" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:F8"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="A23:AU56"/>
@@ -3930,6 +3927,12 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3941,7 +3944,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4052,7 +4055,9 @@
         <v>19</v>
       </c>
       <c r="E6" s="8"/>
-      <c r="F6" s="49"/>
+      <c r="F6" s="49" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2">
